--- a/projects/EcoFoci/dy2206/data/dy2206_faire.xlsx
+++ b/projects/EcoFoci/dy2206/data/dy2206_faire.xlsx
@@ -5643,7 +5643,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EL27"/>
+  <dimension ref="A1:ER27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7019,6 +7019,36 @@
           <t>User defined</t>
         </is>
       </c>
+      <c r="EM2" t="inlineStr">
+        <is>
+          <t>User defined</t>
+        </is>
+      </c>
+      <c r="EN2" t="inlineStr">
+        <is>
+          <t>User defined</t>
+        </is>
+      </c>
+      <c r="EO2" t="inlineStr">
+        <is>
+          <t>User defined</t>
+        </is>
+      </c>
+      <c r="EP2" t="inlineStr">
+        <is>
+          <t>User defined</t>
+        </is>
+      </c>
+      <c r="EQ2" t="inlineStr">
+        <is>
+          <t>User defined</t>
+        </is>
+      </c>
+      <c r="ER2" t="inlineStr">
+        <is>
+          <t>User defined</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="inlineStr">
@@ -7688,45 +7718,75 @@
       </c>
       <c r="ED3" t="inlineStr">
         <is>
+          <t>density</t>
+        </is>
+      </c>
+      <c r="EE3" t="inlineStr">
+        <is>
+          <t>par</t>
+        </is>
+      </c>
+      <c r="EF3" t="inlineStr">
+        <is>
+          <t>air_pressure_at_sea_level</t>
+        </is>
+      </c>
+      <c r="EG3" t="inlineStr">
+        <is>
           <t>silicate</t>
         </is>
       </c>
-      <c r="EE3" t="inlineStr">
+      <c r="EH3" t="inlineStr">
         <is>
           <t>ammonium</t>
         </is>
       </c>
-      <c r="EF3" t="inlineStr">
+      <c r="EI3" t="inlineStr">
         <is>
           <t>cruise_id</t>
         </is>
       </c>
-      <c r="EG3" t="inlineStr">
+      <c r="EJ3" t="inlineStr">
         <is>
           <t>station</t>
         </is>
       </c>
-      <c r="EH3" t="inlineStr">
+      <c r="EK3" t="inlineStr">
         <is>
           <t>cast_no</t>
         </is>
       </c>
-      <c r="EI3" t="inlineStr">
+      <c r="EL3" t="inlineStr">
         <is>
           <t>rosette_position</t>
         </is>
       </c>
-      <c r="EJ3" t="inlineStr">
+      <c r="EM3" t="inlineStr">
         <is>
           <t>phosphate_unit</t>
         </is>
       </c>
-      <c r="EK3" t="inlineStr">
+      <c r="EN3" t="inlineStr">
+        <is>
+          <t>density_unit</t>
+        </is>
+      </c>
+      <c r="EO3" t="inlineStr">
+        <is>
+          <t>par_unit</t>
+        </is>
+      </c>
+      <c r="EP3" t="inlineStr">
+        <is>
+          <t>air_pressure_at_sea_level_unit</t>
+        </is>
+      </c>
+      <c r="EQ3" t="inlineStr">
         <is>
           <t>silicate_unit</t>
         </is>
       </c>
-      <c r="EL3" t="inlineStr">
+      <c r="ER3" t="inlineStr">
         <is>
           <t>ammonium_unit</t>
         </is>
@@ -7991,7 +8051,7 @@
       </c>
       <c r="BC4" t="inlineStr">
         <is>
-          <t>2024-04-10T00:00:00Z</t>
+          <t>2024-04-10</t>
         </is>
       </c>
       <c r="BD4" t="inlineStr">
@@ -8355,38 +8415,62 @@
         <v>109.53961</v>
       </c>
       <c r="ED4" t="n">
+        <v>25.71134</v>
+      </c>
+      <c r="EE4" t="n">
+        <v>0.28367</v>
+      </c>
+      <c r="EF4" t="n">
+        <v>1027</v>
+      </c>
+      <c r="EG4" t="n">
         <v>16</v>
       </c>
-      <c r="EE4" t="n">
+      <c r="EH4" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="EF4" t="inlineStr">
+      <c r="EI4" t="inlineStr">
         <is>
           <t>EcoFoci Spring Mooring 2022</t>
         </is>
       </c>
-      <c r="EG4" t="inlineStr">
+      <c r="EJ4" t="inlineStr">
         <is>
           <t>70M6</t>
         </is>
       </c>
-      <c r="EH4" t="n">
+      <c r="EK4" t="n">
         <v>1</v>
       </c>
-      <c r="EI4" t="n">
+      <c r="EL4" t="n">
         <v>1</v>
       </c>
-      <c r="EJ4" t="inlineStr">
+      <c r="EM4" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK4" t="inlineStr">
+      <c r="EN4" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EO4" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="EP4" t="inlineStr">
+        <is>
+          <t>mb</t>
+        </is>
+      </c>
+      <c r="EQ4" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL4" t="inlineStr">
+      <c r="ER4" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
@@ -8651,7 +8735,7 @@
       </c>
       <c r="BC5" t="inlineStr">
         <is>
-          <t>2024-04-10T00:00:00Z</t>
+          <t>2024-04-10</t>
         </is>
       </c>
       <c r="BD5" t="inlineStr">
@@ -9015,38 +9099,62 @@
         <v>110.97975</v>
       </c>
       <c r="ED5" t="n">
+        <v>25.707336</v>
+      </c>
+      <c r="EE5" t="n">
+        <v>0.28366</v>
+      </c>
+      <c r="EF5" t="n">
+        <v>1027</v>
+      </c>
+      <c r="EG5" t="n">
         <v>15.4</v>
       </c>
-      <c r="EE5" t="n">
+      <c r="EH5" t="n">
         <v>0.65</v>
       </c>
-      <c r="EF5" t="inlineStr">
+      <c r="EI5" t="inlineStr">
         <is>
           <t>EcoFoci Spring Mooring 2022</t>
         </is>
       </c>
-      <c r="EG5" t="inlineStr">
+      <c r="EJ5" t="inlineStr">
         <is>
           <t>70M6</t>
         </is>
       </c>
-      <c r="EH5" t="n">
+      <c r="EK5" t="n">
         <v>1</v>
       </c>
-      <c r="EI5" t="n">
+      <c r="EL5" t="n">
         <v>4</v>
       </c>
-      <c r="EJ5" t="inlineStr">
+      <c r="EM5" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK5" t="inlineStr">
+      <c r="EN5" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EO5" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="EP5" t="inlineStr">
+        <is>
+          <t>mb</t>
+        </is>
+      </c>
+      <c r="EQ5" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL5" t="inlineStr">
+      <c r="ER5" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
@@ -9311,7 +9419,7 @@
       </c>
       <c r="BC6" t="inlineStr">
         <is>
-          <t>2024-04-10T00:00:00Z</t>
+          <t>2024-04-10</t>
         </is>
       </c>
       <c r="BD6" t="inlineStr">
@@ -9698,31 +9806,61 @@
       </c>
       <c r="EF6" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EG6" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH6" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EI6" t="inlineStr">
+        <is>
           <t>EcoFoci Spring Mooring 2022</t>
         </is>
       </c>
-      <c r="EG6" t="inlineStr">
+      <c r="EJ6" t="inlineStr">
         <is>
           <t>70M6</t>
         </is>
       </c>
-      <c r="EH6" t="n">
+      <c r="EK6" t="n">
         <v>1</v>
       </c>
-      <c r="EI6" t="n">
+      <c r="EL6" t="n">
         <v>7</v>
       </c>
-      <c r="EJ6" t="inlineStr">
+      <c r="EM6" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK6" t="inlineStr">
+      <c r="EN6" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EO6" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="EP6" t="inlineStr">
+        <is>
+          <t>mb</t>
+        </is>
+      </c>
+      <c r="EQ6" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL6" t="inlineStr">
+      <c r="ER6" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
@@ -9987,7 +10125,7 @@
       </c>
       <c r="BC7" t="inlineStr">
         <is>
-          <t>2024-04-10T00:00:00Z</t>
+          <t>2024-04-10</t>
         </is>
       </c>
       <c r="BD7" t="inlineStr">
@@ -10374,31 +10512,61 @@
       </c>
       <c r="EF7" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EG7" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH7" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EI7" t="inlineStr">
+        <is>
           <t>EcoFoci Spring Mooring 2022</t>
         </is>
       </c>
-      <c r="EG7" t="inlineStr">
+      <c r="EJ7" t="inlineStr">
         <is>
           <t>M2E</t>
         </is>
       </c>
-      <c r="EH7" t="n">
+      <c r="EK7" t="n">
         <v>3</v>
       </c>
-      <c r="EI7" t="n">
+      <c r="EL7" t="n">
         <v>1</v>
       </c>
-      <c r="EJ7" t="inlineStr">
+      <c r="EM7" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK7" t="inlineStr">
+      <c r="EN7" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EO7" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="EP7" t="inlineStr">
+        <is>
+          <t>mb</t>
+        </is>
+      </c>
+      <c r="EQ7" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL7" t="inlineStr">
+      <c r="ER7" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
@@ -10663,7 +10831,7 @@
       </c>
       <c r="BC8" t="inlineStr">
         <is>
-          <t>2024-04-10T00:00:00Z</t>
+          <t>2024-04-10</t>
         </is>
       </c>
       <c r="BD8" t="inlineStr">
@@ -11050,31 +11218,61 @@
       </c>
       <c r="EF8" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EG8" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH8" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EI8" t="inlineStr">
+        <is>
           <t>EcoFoci Spring Mooring 2022</t>
         </is>
       </c>
-      <c r="EG8" t="inlineStr">
+      <c r="EJ8" t="inlineStr">
         <is>
           <t>M2E</t>
         </is>
       </c>
-      <c r="EH8" t="n">
+      <c r="EK8" t="n">
         <v>3</v>
       </c>
-      <c r="EI8" t="n">
+      <c r="EL8" t="n">
         <v>4</v>
       </c>
-      <c r="EJ8" t="inlineStr">
+      <c r="EM8" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK8" t="inlineStr">
+      <c r="EN8" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EO8" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="EP8" t="inlineStr">
+        <is>
+          <t>mb</t>
+        </is>
+      </c>
+      <c r="EQ8" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL8" t="inlineStr">
+      <c r="ER8" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
@@ -11339,7 +11537,7 @@
       </c>
       <c r="BC9" t="inlineStr">
         <is>
-          <t>2024-04-10T00:00:00Z</t>
+          <t>2024-04-10</t>
         </is>
       </c>
       <c r="BD9" t="inlineStr">
@@ -11726,31 +11924,61 @@
       </c>
       <c r="EF9" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EG9" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH9" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EI9" t="inlineStr">
+        <is>
           <t>EcoFoci Spring Mooring 2022</t>
         </is>
       </c>
-      <c r="EG9" t="inlineStr">
+      <c r="EJ9" t="inlineStr">
         <is>
           <t>M2E</t>
         </is>
       </c>
-      <c r="EH9" t="n">
+      <c r="EK9" t="n">
         <v>3</v>
       </c>
-      <c r="EI9" t="n">
+      <c r="EL9" t="n">
         <v>7</v>
       </c>
-      <c r="EJ9" t="inlineStr">
+      <c r="EM9" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK9" t="inlineStr">
+      <c r="EN9" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EO9" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="EP9" t="inlineStr">
+        <is>
+          <t>mb</t>
+        </is>
+      </c>
+      <c r="EQ9" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL9" t="inlineStr">
+      <c r="ER9" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
@@ -12015,7 +12243,7 @@
       </c>
       <c r="BC10" t="inlineStr">
         <is>
-          <t>2024-04-10T00:00:00Z</t>
+          <t>2024-04-10</t>
         </is>
       </c>
       <c r="BD10" t="inlineStr">
@@ -12402,31 +12630,61 @@
       </c>
       <c r="EF10" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EG10" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH10" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EI10" t="inlineStr">
+        <is>
           <t>EcoFoci Spring Mooring 2022</t>
         </is>
       </c>
-      <c r="EG10" t="inlineStr">
+      <c r="EJ10" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="EH10" t="n">
+      <c r="EK10" t="n">
         <v>7</v>
       </c>
-      <c r="EI10" t="n">
+      <c r="EL10" t="n">
         <v>1</v>
       </c>
-      <c r="EJ10" t="inlineStr">
+      <c r="EM10" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK10" t="inlineStr">
+      <c r="EN10" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EO10" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="EP10" t="inlineStr">
+        <is>
+          <t>mb</t>
+        </is>
+      </c>
+      <c r="EQ10" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL10" t="inlineStr">
+      <c r="ER10" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
@@ -12691,7 +12949,7 @@
       </c>
       <c r="BC11" t="inlineStr">
         <is>
-          <t>2024-04-10T00:00:00Z</t>
+          <t>2024-04-10</t>
         </is>
       </c>
       <c r="BD11" t="inlineStr">
@@ -13078,31 +13336,61 @@
       </c>
       <c r="EF11" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EG11" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH11" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EI11" t="inlineStr">
+        <is>
           <t>EcoFoci Spring Mooring 2022</t>
         </is>
       </c>
-      <c r="EG11" t="inlineStr">
+      <c r="EJ11" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="EH11" t="n">
+      <c r="EK11" t="n">
         <v>7</v>
       </c>
-      <c r="EI11" t="n">
+      <c r="EL11" t="n">
         <v>4</v>
       </c>
-      <c r="EJ11" t="inlineStr">
+      <c r="EM11" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK11" t="inlineStr">
+      <c r="EN11" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EO11" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="EP11" t="inlineStr">
+        <is>
+          <t>mb</t>
+        </is>
+      </c>
+      <c r="EQ11" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL11" t="inlineStr">
+      <c r="ER11" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
@@ -13367,7 +13655,7 @@
       </c>
       <c r="BC12" t="inlineStr">
         <is>
-          <t>2024-04-10T00:00:00Z</t>
+          <t>2024-04-10</t>
         </is>
       </c>
       <c r="BD12" t="inlineStr">
@@ -13754,31 +14042,61 @@
       </c>
       <c r="EF12" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EG12" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH12" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EI12" t="inlineStr">
+        <is>
           <t>EcoFoci Spring Mooring 2022</t>
         </is>
       </c>
-      <c r="EG12" t="inlineStr">
+      <c r="EJ12" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="EH12" t="n">
+      <c r="EK12" t="n">
         <v>7</v>
       </c>
-      <c r="EI12" t="n">
+      <c r="EL12" t="n">
         <v>7</v>
       </c>
-      <c r="EJ12" t="inlineStr">
+      <c r="EM12" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK12" t="inlineStr">
+      <c r="EN12" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EO12" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="EP12" t="inlineStr">
+        <is>
+          <t>mb</t>
+        </is>
+      </c>
+      <c r="EQ12" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL12" t="inlineStr">
+      <c r="ER12" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
@@ -14043,7 +14361,7 @@
       </c>
       <c r="BC13" t="inlineStr">
         <is>
-          <t>2024-04-10T00:00:00Z</t>
+          <t>2024-04-10</t>
         </is>
       </c>
       <c r="BD13" t="inlineStr">
@@ -14407,38 +14725,62 @@
         <v>104.03257</v>
       </c>
       <c r="ED13" t="n">
+        <v>25.686394</v>
+      </c>
+      <c r="EE13" t="n">
+        <v>0.28367</v>
+      </c>
+      <c r="EF13" t="n">
+        <v>1028</v>
+      </c>
+      <c r="EG13" t="n">
         <v>10.1</v>
       </c>
-      <c r="EE13" t="n">
+      <c r="EH13" t="n">
         <v>3.16</v>
       </c>
-      <c r="EF13" t="inlineStr">
+      <c r="EI13" t="inlineStr">
         <is>
           <t>EcoFoci Spring Mooring 2022</t>
         </is>
       </c>
-      <c r="EG13" t="inlineStr">
+      <c r="EJ13" t="inlineStr">
         <is>
           <t>70M12</t>
         </is>
       </c>
-      <c r="EH13" t="n">
+      <c r="EK13" t="n">
         <v>12</v>
       </c>
-      <c r="EI13" t="n">
+      <c r="EL13" t="n">
         <v>1</v>
       </c>
-      <c r="EJ13" t="inlineStr">
+      <c r="EM13" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK13" t="inlineStr">
+      <c r="EN13" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EO13" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="EP13" t="inlineStr">
+        <is>
+          <t>mb</t>
+        </is>
+      </c>
+      <c r="EQ13" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL13" t="inlineStr">
+      <c r="ER13" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
@@ -14703,7 +15045,7 @@
       </c>
       <c r="BC14" t="inlineStr">
         <is>
-          <t>2024-04-10T00:00:00Z</t>
+          <t>2024-04-10</t>
         </is>
       </c>
       <c r="BD14" t="inlineStr">
@@ -15067,38 +15409,62 @@
         <v>120.95594</v>
       </c>
       <c r="ED14" t="n">
+        <v>25.583979</v>
+      </c>
+      <c r="EE14" t="n">
+        <v>0.28366</v>
+      </c>
+      <c r="EF14" t="n">
+        <v>1028</v>
+      </c>
+      <c r="EG14" t="n">
         <v>0.6</v>
       </c>
-      <c r="EE14" t="n">
+      <c r="EH14" t="n">
         <v>0.31</v>
       </c>
-      <c r="EF14" t="inlineStr">
+      <c r="EI14" t="inlineStr">
         <is>
           <t>EcoFoci Spring Mooring 2022</t>
         </is>
       </c>
-      <c r="EG14" t="inlineStr">
+      <c r="EJ14" t="inlineStr">
         <is>
           <t>70M12</t>
         </is>
       </c>
-      <c r="EH14" t="n">
+      <c r="EK14" t="n">
         <v>12</v>
       </c>
-      <c r="EI14" t="n">
+      <c r="EL14" t="n">
         <v>4</v>
       </c>
-      <c r="EJ14" t="inlineStr">
+      <c r="EM14" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK14" t="inlineStr">
+      <c r="EN14" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EO14" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="EP14" t="inlineStr">
+        <is>
+          <t>mb</t>
+        </is>
+      </c>
+      <c r="EQ14" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL14" t="inlineStr">
+      <c r="ER14" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
@@ -15363,7 +15729,7 @@
       </c>
       <c r="BC15" t="inlineStr">
         <is>
-          <t>2024-04-10T00:00:00Z</t>
+          <t>2024-04-10</t>
         </is>
       </c>
       <c r="BD15" t="inlineStr">
@@ -15727,38 +16093,64 @@
         <v>126.42254</v>
       </c>
       <c r="ED15" t="n">
+        <v>25.499243</v>
+      </c>
+      <c r="EE15" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EF15" t="n">
+        <v>1028</v>
+      </c>
+      <c r="EG15" t="n">
         <v>0.9</v>
       </c>
-      <c r="EE15" t="n">
+      <c r="EH15" t="n">
         <v>0.04</v>
       </c>
-      <c r="EF15" t="inlineStr">
+      <c r="EI15" t="inlineStr">
         <is>
           <t>EcoFoci Spring Mooring 2022</t>
         </is>
       </c>
-      <c r="EG15" t="inlineStr">
+      <c r="EJ15" t="inlineStr">
         <is>
           <t>70M12</t>
         </is>
       </c>
-      <c r="EH15" t="n">
+      <c r="EK15" t="n">
         <v>12</v>
       </c>
-      <c r="EI15" t="n">
+      <c r="EL15" t="n">
         <v>7</v>
       </c>
-      <c r="EJ15" t="inlineStr">
+      <c r="EM15" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK15" t="inlineStr">
+      <c r="EN15" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EO15" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="EP15" t="inlineStr">
+        <is>
+          <t>mb</t>
+        </is>
+      </c>
+      <c r="EQ15" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL15" t="inlineStr">
+      <c r="ER15" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
@@ -16023,7 +16415,7 @@
       </c>
       <c r="BC16" t="inlineStr">
         <is>
-          <t>2024-04-24T00:00:00Z</t>
+          <t>2024-04-24</t>
         </is>
       </c>
       <c r="BD16" t="inlineStr">
@@ -16412,31 +16804,61 @@
       </c>
       <c r="EF16" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EG16" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH16" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EI16" t="inlineStr">
+        <is>
           <t>EcoFoci Spring Mooring 2022</t>
         </is>
       </c>
-      <c r="EG16" t="inlineStr">
+      <c r="EJ16" t="inlineStr">
         <is>
           <t>UBS2</t>
         </is>
       </c>
-      <c r="EH16" t="n">
+      <c r="EK16" t="n">
         <v>17</v>
       </c>
-      <c r="EI16" t="n">
+      <c r="EL16" t="n">
         <v>1</v>
       </c>
-      <c r="EJ16" t="inlineStr">
+      <c r="EM16" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK16" t="inlineStr">
+      <c r="EN16" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EO16" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="EP16" t="inlineStr">
+        <is>
+          <t>mb</t>
+        </is>
+      </c>
+      <c r="EQ16" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL16" t="inlineStr">
+      <c r="ER16" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
@@ -16701,7 +17123,7 @@
       </c>
       <c r="BC17" t="inlineStr">
         <is>
-          <t>2024-04-10T00:00:00Z</t>
+          <t>2024-04-10</t>
         </is>
       </c>
       <c r="BD17" t="inlineStr">
@@ -17090,31 +17512,61 @@
       </c>
       <c r="EF17" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EG17" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH17" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EI17" t="inlineStr">
+        <is>
           <t>EcoFoci Spring Mooring 2022</t>
         </is>
       </c>
-      <c r="EG17" t="inlineStr">
+      <c r="EJ17" t="inlineStr">
         <is>
           <t>UBS2</t>
         </is>
       </c>
-      <c r="EH17" t="n">
+      <c r="EK17" t="n">
         <v>17</v>
       </c>
-      <c r="EI17" t="n">
+      <c r="EL17" t="n">
         <v>4</v>
       </c>
-      <c r="EJ17" t="inlineStr">
+      <c r="EM17" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK17" t="inlineStr">
+      <c r="EN17" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EO17" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="EP17" t="inlineStr">
+        <is>
+          <t>mb</t>
+        </is>
+      </c>
+      <c r="EQ17" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL17" t="inlineStr">
+      <c r="ER17" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
@@ -17379,7 +17831,7 @@
       </c>
       <c r="BC18" t="inlineStr">
         <is>
-          <t>2024-04-10T00:00:00Z</t>
+          <t>2024-04-10</t>
         </is>
       </c>
       <c r="BD18" t="inlineStr">
@@ -17768,31 +18220,61 @@
       </c>
       <c r="EF18" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EG18" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH18" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EI18" t="inlineStr">
+        <is>
           <t>EcoFoci Spring Mooring 2022</t>
         </is>
       </c>
-      <c r="EG18" t="inlineStr">
+      <c r="EJ18" t="inlineStr">
         <is>
           <t>UBS2</t>
         </is>
       </c>
-      <c r="EH18" t="n">
+      <c r="EK18" t="n">
         <v>17</v>
       </c>
-      <c r="EI18" t="n">
+      <c r="EL18" t="n">
         <v>7</v>
       </c>
-      <c r="EJ18" t="inlineStr">
+      <c r="EM18" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK18" t="inlineStr">
+      <c r="EN18" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EO18" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="EP18" t="inlineStr">
+        <is>
+          <t>mb</t>
+        </is>
+      </c>
+      <c r="EQ18" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL18" t="inlineStr">
+      <c r="ER18" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
@@ -18057,7 +18539,7 @@
       </c>
       <c r="BC19" t="inlineStr">
         <is>
-          <t>2024-04-10T00:00:00Z</t>
+          <t>2024-04-10</t>
         </is>
       </c>
       <c r="BD19" t="inlineStr">
@@ -18444,31 +18926,61 @@
       </c>
       <c r="EF19" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EG19" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH19" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EI19" t="inlineStr">
+        <is>
           <t>EcoFoci Spring Mooring 2022</t>
         </is>
       </c>
-      <c r="EG19" t="inlineStr">
+      <c r="EJ19" t="inlineStr">
         <is>
           <t>M4C</t>
         </is>
       </c>
-      <c r="EH19" t="n">
+      <c r="EK19" t="n">
         <v>22</v>
       </c>
-      <c r="EI19" t="n">
+      <c r="EL19" t="n">
         <v>1</v>
       </c>
-      <c r="EJ19" t="inlineStr">
+      <c r="EM19" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK19" t="inlineStr">
+      <c r="EN19" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EO19" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="EP19" t="inlineStr">
+        <is>
+          <t>mb</t>
+        </is>
+      </c>
+      <c r="EQ19" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL19" t="inlineStr">
+      <c r="ER19" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
@@ -18733,7 +19245,7 @@
       </c>
       <c r="BC20" t="inlineStr">
         <is>
-          <t>2024-04-10T00:00:00Z</t>
+          <t>2024-04-10</t>
         </is>
       </c>
       <c r="BD20" t="inlineStr">
@@ -19120,31 +19632,61 @@
       </c>
       <c r="EF20" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EG20" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH20" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EI20" t="inlineStr">
+        <is>
           <t>EcoFoci Spring Mooring 2022</t>
         </is>
       </c>
-      <c r="EG20" t="inlineStr">
+      <c r="EJ20" t="inlineStr">
         <is>
           <t>M4C</t>
         </is>
       </c>
-      <c r="EH20" t="n">
+      <c r="EK20" t="n">
         <v>22</v>
       </c>
-      <c r="EI20" t="n">
+      <c r="EL20" t="n">
         <v>4</v>
       </c>
-      <c r="EJ20" t="inlineStr">
+      <c r="EM20" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK20" t="inlineStr">
+      <c r="EN20" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EO20" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="EP20" t="inlineStr">
+        <is>
+          <t>mb</t>
+        </is>
+      </c>
+      <c r="EQ20" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL20" t="inlineStr">
+      <c r="ER20" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
@@ -19409,7 +19951,7 @@
       </c>
       <c r="BC21" t="inlineStr">
         <is>
-          <t>2024-04-10T00:00:00Z</t>
+          <t>2024-04-10</t>
         </is>
       </c>
       <c r="BD21" t="inlineStr">
@@ -19796,31 +20338,61 @@
       </c>
       <c r="EF21" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EG21" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH21" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EI21" t="inlineStr">
+        <is>
           <t>EcoFoci Spring Mooring 2022</t>
         </is>
       </c>
-      <c r="EG21" t="inlineStr">
+      <c r="EJ21" t="inlineStr">
         <is>
           <t>M4C</t>
         </is>
       </c>
-      <c r="EH21" t="n">
+      <c r="EK21" t="n">
         <v>22</v>
       </c>
-      <c r="EI21" t="n">
+      <c r="EL21" t="n">
         <v>7</v>
       </c>
-      <c r="EJ21" t="inlineStr">
+      <c r="EM21" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK21" t="inlineStr">
+      <c r="EN21" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EO21" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="EP21" t="inlineStr">
+        <is>
+          <t>mb</t>
+        </is>
+      </c>
+      <c r="EQ21" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL21" t="inlineStr">
+      <c r="ER21" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
@@ -20085,7 +20657,7 @@
       </c>
       <c r="BC22" t="inlineStr">
         <is>
-          <t>2024-04-10T00:00:00Z</t>
+          <t>2024-04-10</t>
         </is>
       </c>
       <c r="BD22" t="inlineStr">
@@ -20474,31 +21046,61 @@
       </c>
       <c r="EF22" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EG22" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH22" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EI22" t="inlineStr">
+        <is>
           <t>EcoFoci Spring Mooring 2022</t>
         </is>
       </c>
-      <c r="EG22" t="inlineStr">
+      <c r="EJ22" t="inlineStr">
         <is>
           <t>M5C</t>
         </is>
       </c>
-      <c r="EH22" t="n">
+      <c r="EK22" t="n">
         <v>28</v>
       </c>
-      <c r="EI22" t="n">
+      <c r="EL22" t="n">
         <v>1</v>
       </c>
-      <c r="EJ22" t="inlineStr">
+      <c r="EM22" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK22" t="inlineStr">
+      <c r="EN22" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EO22" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="EP22" t="inlineStr">
+        <is>
+          <t>mb</t>
+        </is>
+      </c>
+      <c r="EQ22" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL22" t="inlineStr">
+      <c r="ER22" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
@@ -20763,7 +21365,7 @@
       </c>
       <c r="BC23" t="inlineStr">
         <is>
-          <t>2024-04-10T00:00:00Z</t>
+          <t>2024-04-10</t>
         </is>
       </c>
       <c r="BD23" t="inlineStr">
@@ -21152,31 +21754,61 @@
       </c>
       <c r="EF23" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EG23" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH23" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EI23" t="inlineStr">
+        <is>
           <t>EcoFoci Spring Mooring 2022</t>
         </is>
       </c>
-      <c r="EG23" t="inlineStr">
+      <c r="EJ23" t="inlineStr">
         <is>
           <t>M5C</t>
         </is>
       </c>
-      <c r="EH23" t="n">
+      <c r="EK23" t="n">
         <v>28</v>
       </c>
-      <c r="EI23" t="n">
+      <c r="EL23" t="n">
         <v>4</v>
       </c>
-      <c r="EJ23" t="inlineStr">
+      <c r="EM23" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK23" t="inlineStr">
+      <c r="EN23" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EO23" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="EP23" t="inlineStr">
+        <is>
+          <t>mb</t>
+        </is>
+      </c>
+      <c r="EQ23" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL23" t="inlineStr">
+      <c r="ER23" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
@@ -21441,7 +22073,7 @@
       </c>
       <c r="BC24" t="inlineStr">
         <is>
-          <t>2024-04-10T00:00:00Z</t>
+          <t>2024-04-10</t>
         </is>
       </c>
       <c r="BD24" t="inlineStr">
@@ -21830,31 +22462,61 @@
       </c>
       <c r="EF24" t="inlineStr">
         <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EG24" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH24" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EI24" t="inlineStr">
+        <is>
           <t>EcoFoci Spring Mooring 2022</t>
         </is>
       </c>
-      <c r="EG24" t="inlineStr">
+      <c r="EJ24" t="inlineStr">
         <is>
           <t>M5C</t>
         </is>
       </c>
-      <c r="EH24" t="n">
+      <c r="EK24" t="n">
         <v>28</v>
       </c>
-      <c r="EI24" t="n">
+      <c r="EL24" t="n">
         <v>7</v>
       </c>
-      <c r="EJ24" t="inlineStr">
+      <c r="EM24" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EK24" t="inlineStr">
+      <c r="EN24" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
+      </c>
+      <c r="EO24" t="inlineStr">
+        <is>
+          <t>µmol s-1 m-2</t>
+        </is>
+      </c>
+      <c r="EP24" t="inlineStr">
+        <is>
+          <t>mb</t>
+        </is>
+      </c>
+      <c r="EQ24" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
       </c>
-      <c r="EL24" t="inlineStr">
+      <c r="ER24" t="inlineStr">
         <is>
           <t>µmol/L</t>
         </is>
@@ -22569,6 +23231,36 @@
           <t>not applicable: control sample</t>
         </is>
       </c>
+      <c r="EM25" t="inlineStr">
+        <is>
+          <t>not applicable: control sample</t>
+        </is>
+      </c>
+      <c r="EN25" t="inlineStr">
+        <is>
+          <t>not applicable: control sample</t>
+        </is>
+      </c>
+      <c r="EO25" t="inlineStr">
+        <is>
+          <t>not applicable: control sample</t>
+        </is>
+      </c>
+      <c r="EP25" t="inlineStr">
+        <is>
+          <t>not applicable: control sample</t>
+        </is>
+      </c>
+      <c r="EQ25" t="inlineStr">
+        <is>
+          <t>not applicable: control sample</t>
+        </is>
+      </c>
+      <c r="ER25" t="inlineStr">
+        <is>
+          <t>not applicable: control sample</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -23279,6 +23971,36 @@
           <t>not applicable: control sample</t>
         </is>
       </c>
+      <c r="EM26" t="inlineStr">
+        <is>
+          <t>not applicable: control sample</t>
+        </is>
+      </c>
+      <c r="EN26" t="inlineStr">
+        <is>
+          <t>not applicable: control sample</t>
+        </is>
+      </c>
+      <c r="EO26" t="inlineStr">
+        <is>
+          <t>not applicable: control sample</t>
+        </is>
+      </c>
+      <c r="EP26" t="inlineStr">
+        <is>
+          <t>not applicable: control sample</t>
+        </is>
+      </c>
+      <c r="EQ26" t="inlineStr">
+        <is>
+          <t>not applicable: control sample</t>
+        </is>
+      </c>
+      <c r="ER26" t="inlineStr">
+        <is>
+          <t>not applicable: control sample</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -23985,6 +24707,36 @@
         </is>
       </c>
       <c r="EL27" t="inlineStr">
+        <is>
+          <t>not applicable: control sample</t>
+        </is>
+      </c>
+      <c r="EM27" t="inlineStr">
+        <is>
+          <t>not applicable: control sample</t>
+        </is>
+      </c>
+      <c r="EN27" t="inlineStr">
+        <is>
+          <t>not applicable: control sample</t>
+        </is>
+      </c>
+      <c r="EO27" t="inlineStr">
+        <is>
+          <t>not applicable: control sample</t>
+        </is>
+      </c>
+      <c r="EP27" t="inlineStr">
+        <is>
+          <t>not applicable: control sample</t>
+        </is>
+      </c>
+      <c r="EQ27" t="inlineStr">
+        <is>
+          <t>not applicable: control sample</t>
+        </is>
+      </c>
+      <c r="ER27" t="inlineStr">
         <is>
           <t>not applicable: control sample</t>
         </is>

--- a/projects/EcoFoci/dy2206/data/dy2206_faire.xlsx
+++ b/projects/EcoFoci/dy2206/data/dy2206_faire.xlsx
@@ -5262,8 +5262,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H4" s="4" t="n">
-        <v/>
+      <c r="H4" s="4" t="inlineStr">
+        <is>
+          <t>E1147.NC.DY2206 | E1157.NC.DY2206 | E1170.NC.DY2206</t>
+        </is>
       </c>
       <c r="I4" s="4" t="inlineStr">
         <is>
@@ -5944,8 +5946,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>E1147.NC.DY2206 | E1157.NC.DY2206 | E1170.NC.DY2206</t>
+        </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -6626,8 +6630,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H6" t="n">
-        <v/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>E1147.NC.DY2206 | E1157.NC.DY2206 | E1170.NC.DY2206</t>
+        </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -7330,8 +7336,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H7" t="n">
-        <v/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>E1147.NC.DY2206 | E1157.NC.DY2206 | E1170.NC.DY2206</t>
+        </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -8034,8 +8042,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H8" t="n">
-        <v/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>E1147.NC.DY2206 | E1157.NC.DY2206 | E1170.NC.DY2206</t>
+        </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -8738,8 +8748,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H9" t="n">
-        <v/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>E1147.NC.DY2206 | E1157.NC.DY2206 | E1170.NC.DY2206</t>
+        </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -9442,8 +9454,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H10" t="n">
-        <v/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>E1147.NC.DY2206 | E1157.NC.DY2206 | E1170.NC.DY2206</t>
+        </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -10146,8 +10160,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H11" t="n">
-        <v/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>E1147.NC.DY2206 | E1157.NC.DY2206 | E1170.NC.DY2206</t>
+        </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -10850,8 +10866,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H12" t="n">
-        <v/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>E1147.NC.DY2206 | E1157.NC.DY2206 | E1170.NC.DY2206</t>
+        </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -11554,8 +11572,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H13" t="n">
-        <v/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>E1147.NC.DY2206 | E1157.NC.DY2206 | E1170.NC.DY2206</t>
+        </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -12236,8 +12256,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H14" t="n">
-        <v/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>E1147.NC.DY2206 | E1157.NC.DY2206 | E1170.NC.DY2206</t>
+        </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -12918,8 +12940,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H15" t="n">
-        <v/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>E1147.NC.DY2206 | E1157.NC.DY2206 | E1170.NC.DY2206</t>
+        </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -13602,8 +13626,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H16" t="n">
-        <v/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>E1147.NC.DY2206 | E1157.NC.DY2206 | E1170.NC.DY2206</t>
+        </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -14308,8 +14334,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H17" t="n">
-        <v/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>E1147.NC.DY2206 | E1157.NC.DY2206 | E1170.NC.DY2206</t>
+        </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -15014,8 +15042,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H18" t="n">
-        <v/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>E1147.NC.DY2206 | E1157.NC.DY2206 | E1170.NC.DY2206</t>
+        </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -15720,8 +15750,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H19" t="n">
-        <v/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>E1147.NC.DY2206 | E1157.NC.DY2206 | E1170.NC.DY2206</t>
+        </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -16424,8 +16456,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H20" t="n">
-        <v/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>E1147.NC.DY2206 | E1157.NC.DY2206 | E1170.NC.DY2206</t>
+        </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -17128,8 +17162,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H21" t="n">
-        <v/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>E1147.NC.DY2206 | E1157.NC.DY2206 | E1170.NC.DY2206</t>
+        </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -17832,8 +17868,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H22" t="n">
-        <v/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>E1147.NC.DY2206 | E1157.NC.DY2206 | E1170.NC.DY2206</t>
+        </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -18538,8 +18576,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H23" t="n">
-        <v/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>E1147.NC.DY2206 | E1157.NC.DY2206 | E1170.NC.DY2206</t>
+        </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -19244,8 +19284,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H24" t="n">
-        <v/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>E1147.NC.DY2206 | E1157.NC.DY2206 | E1170.NC.DY2206</t>
+        </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>

--- a/projects/EcoFoci/dy2206/data/dy2206_faire.xlsx
+++ b/projects/EcoFoci/dy2206/data/dy2206_faire.xlsx
@@ -9995,19 +9995,25 @@
           <t>mL</t>
         </is>
       </c>
-      <c r="AC4" s="2" t="n">
-        <v/>
+      <c r="AC4" s="2" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
       </c>
       <c r="AD4" s="2" t="inlineStr">
         <is>
           <t>not applicable</t>
         </is>
       </c>
-      <c r="AE4" s="2" t="n">
-        <v/>
-      </c>
-      <c r="AF4" s="2" t="n">
-        <v/>
+      <c r="AE4" s="2" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="AF4" s="2" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
       </c>
       <c r="AG4" s="2" t="inlineStr">
         <is>
@@ -10204,10 +10210,10 @@
         </is>
       </c>
       <c r="BU4" s="2" t="n">
-        <v>71</v>
+        <v>67.36</v>
       </c>
       <c r="BV4" s="2" t="n">
-        <v>72</v>
+        <v>68.36</v>
       </c>
       <c r="BW4" s="2" t="n">
         <v>72</v>
@@ -10533,7 +10539,7 @@
         </is>
       </c>
       <c r="EN4" s="2" t="n">
-        <v/>
+        <v>69</v>
       </c>
       <c r="EO4" s="2" t="inlineStr">
         <is>
@@ -10592,21 +10598,25 @@
       <c r="FA4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="FB4" s="2" t="n">
-        <v/>
+      <c r="FB4" s="2" t="inlineStr">
+        <is>
+          <t>AlaskaArctic22-23_extSet_1</t>
+        </is>
       </c>
       <c r="FC4" s="2" t="inlineStr">
         <is>
-          <t>missing: not collected</t>
+          <t>not applicable</t>
         </is>
       </c>
       <c r="FD4" s="2" t="inlineStr">
         <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
-      <c r="FE4" s="2" t="n">
-        <v/>
+          <t>not applicable</t>
+        </is>
+      </c>
+      <c r="FE4" s="2" t="inlineStr">
+        <is>
+          <t>not applicable</t>
+        </is>
       </c>
       <c r="FF4" s="2" t="n">
         <v/>
@@ -10621,13 +10631,13 @@
           <t>s1h1</t>
         </is>
       </c>
-      <c r="FI4" s="2" t="inlineStr">
+      <c r="FI4" s="2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="FJ4" s="2" t="inlineStr">
         <is>
           <t>ng DNA per mL water</t>
         </is>
-      </c>
-      <c r="FJ4" s="2" t="n">
-        <v/>
       </c>
       <c r="FK4" t="n">
         <v>2</v>
@@ -10696,7 +10706,7 @@
       </c>
       <c r="GB4" t="inlineStr">
         <is>
-          <t>Enironmental metadata measurements reported for this sample are taken from a mix of the CTD data file and bottle file. wind_direction, wind_speed, turbidity, salinity, chlorophyll, and temp are from the bottle file. diss_oxygen, nitrate, nitrite, phosphate, percent_oxygen_sat, density, and par are from the CTD data file. Depth and pressure are primarily recorded from the bottle file, but samples E1148.DY2206, E1149.DY2206, E1158.DY2206, D1159.DY2206, and E1160.DY2206 has pressure recorded from the CTD file.</t>
+          <t>Enironmental metadata measurements reported for this sample are taken from a mix of the CTD data file and bottle file. wind_direction, wind_speed, turbidity, salinity, chlorophyll, and temp are from the bottle file. diss_oxygen, nitrate, nitrite, phosphate, percent_oxygen_sat, density, and par are from the CTD data file. Pressure are primarily recorded from the bottle file, but samples E1148.DY2206, E1149.DY2206, E1158.DY2206, D1159.DY2206, and E1160.DY2206 has pressure recorded from the CTD file. Depth is calculted from pressure.</t>
         </is>
       </c>
     </row>
@@ -10835,19 +10845,25 @@
           <t>mL</t>
         </is>
       </c>
-      <c r="AC5" t="n">
-        <v/>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
       </c>
       <c r="AD5" s="2" t="inlineStr">
         <is>
           <t>not applicable</t>
         </is>
       </c>
-      <c r="AE5" t="n">
-        <v/>
-      </c>
-      <c r="AF5" t="n">
-        <v/>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
@@ -11044,10 +11060,10 @@
         </is>
       </c>
       <c r="BU5" t="n">
-        <v>29</v>
+        <v>28.72</v>
       </c>
       <c r="BV5" t="n">
-        <v>30</v>
+        <v>29.72</v>
       </c>
       <c r="BW5" t="n">
         <v>72</v>
@@ -11373,7 +11389,7 @@
         </is>
       </c>
       <c r="EN5" t="n">
-        <v/>
+        <v>30</v>
       </c>
       <c r="EO5" s="2" t="inlineStr">
         <is>
@@ -11432,21 +11448,25 @@
       <c r="FA5" t="n">
         <v>1</v>
       </c>
-      <c r="FB5" t="n">
-        <v/>
+      <c r="FB5" t="inlineStr">
+        <is>
+          <t>AlaskaArctic22-23_extSet_1</t>
+        </is>
       </c>
       <c r="FC5" t="inlineStr">
         <is>
-          <t>missing: not collected</t>
+          <t>not applicable</t>
         </is>
       </c>
       <c r="FD5" t="inlineStr">
         <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
-      <c r="FE5" t="n">
-        <v/>
+          <t>not applicable</t>
+        </is>
+      </c>
+      <c r="FE5" t="inlineStr">
+        <is>
+          <t>not applicable</t>
+        </is>
       </c>
       <c r="FF5" t="n">
         <v/>
@@ -11461,13 +11481,13 @@
           <t>s1h1</t>
         </is>
       </c>
-      <c r="FI5" t="inlineStr">
+      <c r="FI5" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="FJ5" t="inlineStr">
         <is>
           <t>ng DNA per mL water</t>
         </is>
-      </c>
-      <c r="FJ5" t="n">
-        <v/>
       </c>
       <c r="FK5" t="n">
         <v>2</v>
@@ -11536,7 +11556,7 @@
       </c>
       <c r="GB5" t="inlineStr">
         <is>
-          <t>Enironmental metadata measurements reported for this sample are taken from a mix of the CTD data file and bottle file. wind_direction, wind_speed, turbidity, salinity, chlorophyll, and temp are from the bottle file. diss_oxygen, nitrate, nitrite, phosphate, percent_oxygen_sat, density, and par are from the CTD data file. Depth and pressure are primarily recorded from the bottle file, but samples E1148.DY2206, E1149.DY2206, E1158.DY2206, D1159.DY2206, and E1160.DY2206 has pressure recorded from the CTD file.</t>
+          <t>Enironmental metadata measurements reported for this sample are taken from a mix of the CTD data file and bottle file. wind_direction, wind_speed, turbidity, salinity, chlorophyll, and temp are from the bottle file. diss_oxygen, nitrate, nitrite, phosphate, percent_oxygen_sat, density, and par are from the CTD data file. Pressure are primarily recorded from the bottle file, but samples E1148.DY2206, E1149.DY2206, E1158.DY2206, D1159.DY2206, and E1160.DY2206 has pressure recorded from the CTD file. Depth is calculted from pressure.</t>
         </is>
       </c>
     </row>
@@ -11675,19 +11695,25 @@
           <t>mL</t>
         </is>
       </c>
-      <c r="AC6" t="n">
-        <v/>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
       </c>
       <c r="AD6" s="2" t="inlineStr">
         <is>
           <t>not applicable</t>
         </is>
       </c>
-      <c r="AE6" t="n">
-        <v/>
-      </c>
-      <c r="AF6" t="n">
-        <v/>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
@@ -12224,12 +12250,14 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="EN6" t="n">
-        <v/>
+      <c r="EN6" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
       </c>
       <c r="EO6" s="2" t="inlineStr">
         <is>
-          <t>dbar</t>
+          <t>not applicable</t>
         </is>
       </c>
       <c r="EP6" t="inlineStr">
@@ -12286,21 +12314,25 @@
       <c r="FA6" t="n">
         <v>1</v>
       </c>
-      <c r="FB6" t="n">
-        <v/>
+      <c r="FB6" t="inlineStr">
+        <is>
+          <t>AlaskaArctic22-23_extSet_1</t>
+        </is>
       </c>
       <c r="FC6" t="inlineStr">
         <is>
-          <t>missing: not collected</t>
+          <t>not applicable</t>
         </is>
       </c>
       <c r="FD6" t="inlineStr">
         <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
-      <c r="FE6" t="n">
-        <v/>
+          <t>not applicable</t>
+        </is>
+      </c>
+      <c r="FE6" t="inlineStr">
+        <is>
+          <t>not applicable</t>
+        </is>
       </c>
       <c r="FF6" t="n">
         <v/>
@@ -12315,13 +12347,13 @@
           <t>s1h1</t>
         </is>
       </c>
-      <c r="FI6" t="inlineStr">
+      <c r="FI6" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="FJ6" t="inlineStr">
         <is>
           <t>ng DNA per mL water</t>
         </is>
-      </c>
-      <c r="FJ6" t="n">
-        <v/>
       </c>
       <c r="FK6" t="inlineStr">
         <is>
@@ -12408,7 +12440,7 @@
       </c>
       <c r="GB6" t="inlineStr">
         <is>
-          <t>Enironmental metadata measurements reported for this sample are taken from a mix of the CTD data file and bottle file. wind_direction, wind_speed, turbidity, salinity, chlorophyll, and temp are from the bottle file. diss_oxygen, nitrate, nitrite, phosphate, percent_oxygen_sat, density, and par are from the CTD data file. Depth and pressure are primarily recorded from the bottle file, but samples E1148.DY2206, E1149.DY2206, E1158.DY2206, D1159.DY2206, and E1160.DY2206 has pressure recorded from the CTD file.</t>
+          <t>Enironmental metadata measurements reported for this sample are taken from a mix of the CTD data file and bottle file. wind_direction, wind_speed, turbidity, salinity, chlorophyll, and temp are from the bottle file. diss_oxygen, nitrate, nitrite, phosphate, percent_oxygen_sat, density, and par are from the CTD data file. Pressure are primarily recorded from the bottle file, but samples E1148.DY2206, E1149.DY2206, E1158.DY2206, D1159.DY2206, and E1160.DY2206 has pressure recorded from the CTD file. Depth is calculted from pressure.</t>
         </is>
       </c>
     </row>
@@ -12547,19 +12579,25 @@
           <t>mL</t>
         </is>
       </c>
-      <c r="AC7" t="n">
-        <v/>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
       </c>
       <c r="AD7" s="2" t="inlineStr">
         <is>
           <t>not applicable</t>
         </is>
       </c>
-      <c r="AE7" t="n">
-        <v/>
-      </c>
-      <c r="AF7" t="n">
-        <v/>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
@@ -13097,7 +13135,7 @@
         </is>
       </c>
       <c r="EN7" t="n">
-        <v/>
+        <v>64.75700000000001</v>
       </c>
       <c r="EO7" s="2" t="inlineStr">
         <is>
@@ -13158,21 +13196,25 @@
       <c r="FA7" t="n">
         <v>1</v>
       </c>
-      <c r="FB7" t="n">
-        <v/>
+      <c r="FB7" t="inlineStr">
+        <is>
+          <t>AlaskaArctic22-23_extSet_1</t>
+        </is>
       </c>
       <c r="FC7" t="inlineStr">
         <is>
-          <t>missing: not collected</t>
+          <t>not applicable</t>
         </is>
       </c>
       <c r="FD7" t="inlineStr">
         <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
-      <c r="FE7" t="n">
-        <v/>
+          <t>not applicable</t>
+        </is>
+      </c>
+      <c r="FE7" t="inlineStr">
+        <is>
+          <t>not applicable</t>
+        </is>
       </c>
       <c r="FF7" t="n">
         <v/>
@@ -13187,13 +13229,13 @@
           <t>s4h1</t>
         </is>
       </c>
-      <c r="FI7" t="inlineStr">
+      <c r="FI7" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="FJ7" t="inlineStr">
         <is>
           <t>ng DNA per mL water</t>
         </is>
-      </c>
-      <c r="FJ7" t="n">
-        <v/>
       </c>
       <c r="FK7" t="inlineStr">
         <is>
@@ -13280,7 +13322,7 @@
       </c>
       <c r="GB7" t="inlineStr">
         <is>
-          <t>Enironmental metadata measurements reported for this sample are taken from a mix of the CTD data file and bottle file. wind_direction, wind_speed, turbidity, salinity, chlorophyll, and temp are from the bottle file. diss_oxygen, nitrate, nitrite, phosphate, percent_oxygen_sat, density, and par are from the CTD data file. Depth and pressure are primarily recorded from the bottle file, but samples E1148.DY2206, E1149.DY2206, E1158.DY2206, D1159.DY2206, and E1160.DY2206 has pressure recorded from the CTD file.</t>
+          <t>Enironmental metadata measurements reported for this sample are taken from a mix of the CTD data file and bottle file. wind_direction, wind_speed, turbidity, salinity, chlorophyll, and temp are from the bottle file. diss_oxygen, nitrate, nitrite, phosphate, percent_oxygen_sat, density, and par are from the CTD data file. Pressure are primarily recorded from the bottle file, but samples E1148.DY2206, E1149.DY2206, E1158.DY2206, D1159.DY2206, and E1160.DY2206 has pressure recorded from the CTD file. Depth is calculted from pressure.</t>
         </is>
       </c>
     </row>
@@ -13419,19 +13461,25 @@
           <t>mL</t>
         </is>
       </c>
-      <c r="AC8" t="n">
-        <v/>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
       </c>
       <c r="AD8" s="2" t="inlineStr">
         <is>
           <t>not applicable</t>
         </is>
       </c>
-      <c r="AE8" t="n">
-        <v/>
-      </c>
-      <c r="AF8" t="n">
-        <v/>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
@@ -13969,7 +14017,7 @@
         </is>
       </c>
       <c r="EN8" t="n">
-        <v/>
+        <v>30.851</v>
       </c>
       <c r="EO8" s="2" t="inlineStr">
         <is>
@@ -14030,21 +14078,25 @@
       <c r="FA8" t="n">
         <v>1</v>
       </c>
-      <c r="FB8" t="n">
-        <v/>
+      <c r="FB8" t="inlineStr">
+        <is>
+          <t>AlaskaArctic22-23_extSet_1</t>
+        </is>
       </c>
       <c r="FC8" t="inlineStr">
         <is>
-          <t>missing: not collected</t>
+          <t>not applicable</t>
         </is>
       </c>
       <c r="FD8" t="inlineStr">
         <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
-      <c r="FE8" t="n">
-        <v/>
+          <t>not applicable</t>
+        </is>
+      </c>
+      <c r="FE8" t="inlineStr">
+        <is>
+          <t>not applicable</t>
+        </is>
       </c>
       <c r="FF8" t="n">
         <v/>
@@ -14059,13 +14111,13 @@
           <t>s4h1</t>
         </is>
       </c>
-      <c r="FI8" t="inlineStr">
+      <c r="FI8" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="FJ8" t="inlineStr">
         <is>
           <t>ng DNA per mL water</t>
         </is>
-      </c>
-      <c r="FJ8" t="n">
-        <v/>
       </c>
       <c r="FK8" t="inlineStr">
         <is>
@@ -14152,7 +14204,7 @@
       </c>
       <c r="GB8" t="inlineStr">
         <is>
-          <t>Enironmental metadata measurements reported for this sample are taken from a mix of the CTD data file and bottle file. wind_direction, wind_speed, turbidity, salinity, chlorophyll, and temp are from the bottle file. diss_oxygen, nitrate, nitrite, phosphate, percent_oxygen_sat, density, and par are from the CTD data file. Depth and pressure are primarily recorded from the bottle file, but samples E1148.DY2206, E1149.DY2206, E1158.DY2206, D1159.DY2206, and E1160.DY2206 has pressure recorded from the CTD file.</t>
+          <t>Enironmental metadata measurements reported for this sample are taken from a mix of the CTD data file and bottle file. wind_direction, wind_speed, turbidity, salinity, chlorophyll, and temp are from the bottle file. diss_oxygen, nitrate, nitrite, phosphate, percent_oxygen_sat, density, and par are from the CTD data file. Pressure are primarily recorded from the bottle file, but samples E1148.DY2206, E1149.DY2206, E1158.DY2206, D1159.DY2206, and E1160.DY2206 has pressure recorded from the CTD file. Depth is calculted from pressure.</t>
         </is>
       </c>
     </row>
@@ -14291,19 +14343,25 @@
           <t>mL</t>
         </is>
       </c>
-      <c r="AC9" t="n">
-        <v/>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
       </c>
       <c r="AD9" s="2" t="inlineStr">
         <is>
           <t>not applicable</t>
         </is>
       </c>
-      <c r="AE9" t="n">
-        <v/>
-      </c>
-      <c r="AF9" t="n">
-        <v/>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
@@ -14841,7 +14899,7 @@
         </is>
       </c>
       <c r="EN9" t="n">
-        <v/>
+        <v>3.939</v>
       </c>
       <c r="EO9" s="2" t="inlineStr">
         <is>
@@ -14902,21 +14960,25 @@
       <c r="FA9" t="n">
         <v>1</v>
       </c>
-      <c r="FB9" t="n">
-        <v/>
+      <c r="FB9" t="inlineStr">
+        <is>
+          <t>AlaskaArctic22-23_extSet_1</t>
+        </is>
       </c>
       <c r="FC9" t="inlineStr">
         <is>
-          <t>missing: not collected</t>
+          <t>not applicable</t>
         </is>
       </c>
       <c r="FD9" t="inlineStr">
         <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
-      <c r="FE9" t="n">
-        <v/>
+          <t>not applicable</t>
+        </is>
+      </c>
+      <c r="FE9" t="inlineStr">
+        <is>
+          <t>not applicable</t>
+        </is>
       </c>
       <c r="FF9" t="n">
         <v/>
@@ -14931,13 +14993,13 @@
           <t>s4h1</t>
         </is>
       </c>
-      <c r="FI9" t="inlineStr">
+      <c r="FI9" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="FJ9" t="inlineStr">
         <is>
           <t>ng DNA per mL water</t>
         </is>
-      </c>
-      <c r="FJ9" t="n">
-        <v/>
       </c>
       <c r="FK9" t="inlineStr">
         <is>
@@ -15024,7 +15086,7 @@
       </c>
       <c r="GB9" t="inlineStr">
         <is>
-          <t>Enironmental metadata measurements reported for this sample are taken from a mix of the CTD data file and bottle file. wind_direction, wind_speed, turbidity, salinity, chlorophyll, and temp are from the bottle file. diss_oxygen, nitrate, nitrite, phosphate, percent_oxygen_sat, density, and par are from the CTD data file. Depth and pressure are primarily recorded from the bottle file, but samples E1148.DY2206, E1149.DY2206, E1158.DY2206, D1159.DY2206, and E1160.DY2206 has pressure recorded from the CTD file.</t>
+          <t>Enironmental metadata measurements reported for this sample are taken from a mix of the CTD data file and bottle file. wind_direction, wind_speed, turbidity, salinity, chlorophyll, and temp are from the bottle file. diss_oxygen, nitrate, nitrite, phosphate, percent_oxygen_sat, density, and par are from the CTD data file. Pressure are primarily recorded from the bottle file, but samples E1148.DY2206, E1149.DY2206, E1158.DY2206, D1159.DY2206, and E1160.DY2206 has pressure recorded from the CTD file. Depth is calculted from pressure.</t>
         </is>
       </c>
     </row>
@@ -15163,19 +15225,25 @@
           <t>mL</t>
         </is>
       </c>
-      <c r="AC10" t="n">
-        <v/>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
       </c>
       <c r="AD10" s="2" t="inlineStr">
         <is>
           <t>not applicable</t>
         </is>
       </c>
-      <c r="AE10" t="n">
-        <v/>
-      </c>
-      <c r="AF10" t="n">
-        <v/>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
@@ -15713,7 +15781,7 @@
         </is>
       </c>
       <c r="EN10" t="n">
-        <v/>
+        <v>67.508</v>
       </c>
       <c r="EO10" s="2" t="inlineStr">
         <is>
@@ -15774,21 +15842,25 @@
       <c r="FA10" t="n">
         <v>1</v>
       </c>
-      <c r="FB10" t="n">
-        <v/>
+      <c r="FB10" t="inlineStr">
+        <is>
+          <t>AlaskaArctic22-23_extSet_1</t>
+        </is>
       </c>
       <c r="FC10" t="inlineStr">
         <is>
-          <t>missing: not collected</t>
+          <t>not applicable</t>
         </is>
       </c>
       <c r="FD10" t="inlineStr">
         <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
-      <c r="FE10" t="n">
-        <v/>
+          <t>not applicable</t>
+        </is>
+      </c>
+      <c r="FE10" t="inlineStr">
+        <is>
+          <t>not applicable</t>
+        </is>
       </c>
       <c r="FF10" t="n">
         <v/>
@@ -15803,13 +15875,13 @@
           <t>s7h3</t>
         </is>
       </c>
-      <c r="FI10" t="inlineStr">
+      <c r="FI10" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="FJ10" t="inlineStr">
         <is>
           <t>ng DNA per mL water</t>
         </is>
-      </c>
-      <c r="FJ10" t="n">
-        <v/>
       </c>
       <c r="FK10" t="inlineStr">
         <is>
@@ -15896,7 +15968,7 @@
       </c>
       <c r="GB10" t="inlineStr">
         <is>
-          <t>Enironmental metadata measurements reported for this sample are taken from a mix of the CTD data file and bottle file. wind_direction, wind_speed, turbidity, salinity, chlorophyll, and temp are from the bottle file. diss_oxygen, nitrate, nitrite, phosphate, percent_oxygen_sat, density, and par are from the CTD data file. Depth and pressure are primarily recorded from the bottle file, but samples E1148.DY2206, E1149.DY2206, E1158.DY2206, D1159.DY2206, and E1160.DY2206 has pressure recorded from the CTD file.</t>
+          <t>Enironmental metadata measurements reported for this sample are taken from a mix of the CTD data file and bottle file. wind_direction, wind_speed, turbidity, salinity, chlorophyll, and temp are from the bottle file. diss_oxygen, nitrate, nitrite, phosphate, percent_oxygen_sat, density, and par are from the CTD data file. Pressure are primarily recorded from the bottle file, but samples E1148.DY2206, E1149.DY2206, E1158.DY2206, D1159.DY2206, and E1160.DY2206 has pressure recorded from the CTD file. Depth is calculted from pressure.</t>
         </is>
       </c>
     </row>
@@ -16035,19 +16107,25 @@
           <t>mL</t>
         </is>
       </c>
-      <c r="AC11" t="n">
-        <v/>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
       </c>
       <c r="AD11" s="2" t="inlineStr">
         <is>
           <t>not applicable</t>
         </is>
       </c>
-      <c r="AE11" t="n">
-        <v/>
-      </c>
-      <c r="AF11" t="n">
-        <v/>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
@@ -16585,7 +16663,7 @@
         </is>
       </c>
       <c r="EN11" t="n">
-        <v/>
+        <v>30.463</v>
       </c>
       <c r="EO11" s="2" t="inlineStr">
         <is>
@@ -16646,21 +16724,25 @@
       <c r="FA11" t="n">
         <v>1</v>
       </c>
-      <c r="FB11" t="n">
-        <v/>
+      <c r="FB11" t="inlineStr">
+        <is>
+          <t>AlaskaArctic22-23_extSet_1</t>
+        </is>
       </c>
       <c r="FC11" t="inlineStr">
         <is>
-          <t>missing: not collected</t>
+          <t>not applicable</t>
         </is>
       </c>
       <c r="FD11" t="inlineStr">
         <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
-      <c r="FE11" t="n">
-        <v/>
+          <t>not applicable</t>
+        </is>
+      </c>
+      <c r="FE11" t="inlineStr">
+        <is>
+          <t>not applicable</t>
+        </is>
       </c>
       <c r="FF11" t="n">
         <v/>
@@ -16675,13 +16757,13 @@
           <t>s7h3</t>
         </is>
       </c>
-      <c r="FI11" t="inlineStr">
+      <c r="FI11" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="FJ11" t="inlineStr">
         <is>
           <t>ng DNA per mL water</t>
         </is>
-      </c>
-      <c r="FJ11" t="n">
-        <v/>
       </c>
       <c r="FK11" t="inlineStr">
         <is>
@@ -16768,7 +16850,7 @@
       </c>
       <c r="GB11" t="inlineStr">
         <is>
-          <t>Enironmental metadata measurements reported for this sample are taken from a mix of the CTD data file and bottle file. wind_direction, wind_speed, turbidity, salinity, chlorophyll, and temp are from the bottle file. diss_oxygen, nitrate, nitrite, phosphate, percent_oxygen_sat, density, and par are from the CTD data file. Depth and pressure are primarily recorded from the bottle file, but samples E1148.DY2206, E1149.DY2206, E1158.DY2206, D1159.DY2206, and E1160.DY2206 has pressure recorded from the CTD file.</t>
+          <t>Enironmental metadata measurements reported for this sample are taken from a mix of the CTD data file and bottle file. wind_direction, wind_speed, turbidity, salinity, chlorophyll, and temp are from the bottle file. diss_oxygen, nitrate, nitrite, phosphate, percent_oxygen_sat, density, and par are from the CTD data file. Pressure are primarily recorded from the bottle file, but samples E1148.DY2206, E1149.DY2206, E1158.DY2206, D1159.DY2206, and E1160.DY2206 has pressure recorded from the CTD file. Depth is calculted from pressure.</t>
         </is>
       </c>
     </row>
@@ -16907,19 +16989,25 @@
           <t>mL</t>
         </is>
       </c>
-      <c r="AC12" t="n">
-        <v/>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
       </c>
       <c r="AD12" s="2" t="inlineStr">
         <is>
           <t>not applicable</t>
         </is>
       </c>
-      <c r="AE12" t="n">
-        <v/>
-      </c>
-      <c r="AF12" t="n">
-        <v/>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
@@ -17457,7 +17545,7 @@
         </is>
       </c>
       <c r="EN12" t="n">
-        <v/>
+        <v>3.225</v>
       </c>
       <c r="EO12" s="2" t="inlineStr">
         <is>
@@ -17518,21 +17606,25 @@
       <c r="FA12" t="n">
         <v>1</v>
       </c>
-      <c r="FB12" t="n">
-        <v/>
+      <c r="FB12" t="inlineStr">
+        <is>
+          <t>AlaskaArctic22-23_extSet_1</t>
+        </is>
       </c>
       <c r="FC12" t="inlineStr">
         <is>
-          <t>missing: not collected</t>
+          <t>not applicable</t>
         </is>
       </c>
       <c r="FD12" t="inlineStr">
         <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
-      <c r="FE12" t="n">
-        <v/>
+          <t>not applicable</t>
+        </is>
+      </c>
+      <c r="FE12" t="inlineStr">
+        <is>
+          <t>not applicable</t>
+        </is>
       </c>
       <c r="FF12" t="n">
         <v/>
@@ -17547,13 +17639,13 @@
           <t>s7h3</t>
         </is>
       </c>
-      <c r="FI12" t="inlineStr">
+      <c r="FI12" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="FJ12" t="inlineStr">
         <is>
           <t>ng DNA per mL water</t>
         </is>
-      </c>
-      <c r="FJ12" t="n">
-        <v/>
       </c>
       <c r="FK12" t="inlineStr">
         <is>
@@ -17640,7 +17732,7 @@
       </c>
       <c r="GB12" t="inlineStr">
         <is>
-          <t>Enironmental metadata measurements reported for this sample are taken from a mix of the CTD data file and bottle file. wind_direction, wind_speed, turbidity, salinity, chlorophyll, and temp are from the bottle file. diss_oxygen, nitrate, nitrite, phosphate, percent_oxygen_sat, density, and par are from the CTD data file. Depth and pressure are primarily recorded from the bottle file, but samples E1148.DY2206, E1149.DY2206, E1158.DY2206, D1159.DY2206, and E1160.DY2206 has pressure recorded from the CTD file.</t>
+          <t>Enironmental metadata measurements reported for this sample are taken from a mix of the CTD data file and bottle file. wind_direction, wind_speed, turbidity, salinity, chlorophyll, and temp are from the bottle file. diss_oxygen, nitrate, nitrite, phosphate, percent_oxygen_sat, density, and par are from the CTD data file. Pressure are primarily recorded from the bottle file, but samples E1148.DY2206, E1149.DY2206, E1158.DY2206, D1159.DY2206, and E1160.DY2206 has pressure recorded from the CTD file. Depth is calculted from pressure.</t>
         </is>
       </c>
     </row>
@@ -17779,19 +17871,25 @@
           <t>mL</t>
         </is>
       </c>
-      <c r="AC13" t="n">
-        <v/>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
       </c>
       <c r="AD13" s="2" t="inlineStr">
         <is>
           <t>not applicable</t>
         </is>
       </c>
-      <c r="AE13" t="n">
-        <v/>
-      </c>
-      <c r="AF13" t="n">
-        <v/>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
@@ -17988,10 +18086,10 @@
         </is>
       </c>
       <c r="BU13" t="n">
-        <v>64.98</v>
+        <v>65.37</v>
       </c>
       <c r="BV13" t="n">
-        <v>65.98</v>
+        <v>66.37</v>
       </c>
       <c r="BW13" t="n">
         <v>70</v>
@@ -18317,7 +18415,7 @@
         </is>
       </c>
       <c r="EN13" t="n">
-        <v/>
+        <v>67</v>
       </c>
       <c r="EO13" s="2" t="inlineStr">
         <is>
@@ -18376,21 +18474,25 @@
       <c r="FA13" t="n">
         <v>1</v>
       </c>
-      <c r="FB13" t="n">
-        <v/>
+      <c r="FB13" t="inlineStr">
+        <is>
+          <t>AlaskaArctic22-23_extSet_1</t>
+        </is>
       </c>
       <c r="FC13" t="inlineStr">
         <is>
-          <t>missing: not collected</t>
+          <t>not applicable</t>
         </is>
       </c>
       <c r="FD13" t="inlineStr">
         <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
-      <c r="FE13" t="n">
-        <v/>
+          <t>not applicable</t>
+        </is>
+      </c>
+      <c r="FE13" t="inlineStr">
+        <is>
+          <t>not applicable</t>
+        </is>
       </c>
       <c r="FF13" t="n">
         <v/>
@@ -18405,13 +18507,13 @@
           <t>s12h1</t>
         </is>
       </c>
-      <c r="FI13" t="inlineStr">
+      <c r="FI13" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="FJ13" t="inlineStr">
         <is>
           <t>ng DNA per mL water</t>
         </is>
-      </c>
-      <c r="FJ13" t="n">
-        <v/>
       </c>
       <c r="FK13" t="n">
         <v>2</v>
@@ -18478,7 +18580,7 @@
       </c>
       <c r="GB13" t="inlineStr">
         <is>
-          <t>Enironmental metadata measurements reported for this sample are taken from a mix of the CTD data file and bottle file. wind_direction, wind_speed, turbidity, salinity, chlorophyll, and temp are from the bottle file. diss_oxygen, nitrate, nitrite, phosphate, percent_oxygen_sat, density, and par are from the CTD data file. Depth and pressure are primarily recorded from the bottle file, but samples E1148.DY2206, E1149.DY2206, E1158.DY2206, D1159.DY2206, and E1160.DY2206 has pressure recorded from the CTD file.</t>
+          <t>Enironmental metadata measurements reported for this sample are taken from a mix of the CTD data file and bottle file. wind_direction, wind_speed, turbidity, salinity, chlorophyll, and temp are from the bottle file. diss_oxygen, nitrate, nitrite, phosphate, percent_oxygen_sat, density, and par are from the CTD data file. Pressure are primarily recorded from the bottle file, but samples E1148.DY2206, E1149.DY2206, E1158.DY2206, D1159.DY2206, and E1160.DY2206 has pressure recorded from the CTD file. Depth is calculted from pressure.</t>
         </is>
       </c>
     </row>
@@ -18617,19 +18719,25 @@
           <t>mL</t>
         </is>
       </c>
-      <c r="AC14" t="n">
-        <v/>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
       </c>
       <c r="AD14" s="2" t="inlineStr">
         <is>
           <t>not applicable</t>
         </is>
       </c>
-      <c r="AE14" t="n">
-        <v/>
-      </c>
-      <c r="AF14" t="n">
-        <v/>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
@@ -18826,10 +18934,10 @@
         </is>
       </c>
       <c r="BU14" t="n">
-        <v>29.43</v>
+        <v>29.71</v>
       </c>
       <c r="BV14" t="n">
-        <v>30.43</v>
+        <v>30.71</v>
       </c>
       <c r="BW14" t="n">
         <v>70</v>
@@ -19155,7 +19263,7 @@
         </is>
       </c>
       <c r="EN14" t="n">
-        <v/>
+        <v>31</v>
       </c>
       <c r="EO14" s="2" t="inlineStr">
         <is>
@@ -19214,21 +19322,25 @@
       <c r="FA14" t="n">
         <v>1</v>
       </c>
-      <c r="FB14" t="n">
-        <v/>
+      <c r="FB14" t="inlineStr">
+        <is>
+          <t>AlaskaArctic22-23_extSet_1</t>
+        </is>
       </c>
       <c r="FC14" t="inlineStr">
         <is>
-          <t>missing: not collected</t>
+          <t>not applicable</t>
         </is>
       </c>
       <c r="FD14" t="inlineStr">
         <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
-      <c r="FE14" t="n">
-        <v/>
+          <t>not applicable</t>
+        </is>
+      </c>
+      <c r="FE14" t="inlineStr">
+        <is>
+          <t>not applicable</t>
+        </is>
       </c>
       <c r="FF14" t="n">
         <v/>
@@ -19243,13 +19355,13 @@
           <t>s12h1</t>
         </is>
       </c>
-      <c r="FI14" t="inlineStr">
+      <c r="FI14" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="FJ14" t="inlineStr">
         <is>
           <t>ng DNA per mL water</t>
         </is>
-      </c>
-      <c r="FJ14" t="n">
-        <v/>
       </c>
       <c r="FK14" t="n">
         <v>2</v>
@@ -19316,7 +19428,7 @@
       </c>
       <c r="GB14" t="inlineStr">
         <is>
-          <t>Enironmental metadata measurements reported for this sample are taken from a mix of the CTD data file and bottle file. wind_direction, wind_speed, turbidity, salinity, chlorophyll, and temp are from the bottle file. diss_oxygen, nitrate, nitrite, phosphate, percent_oxygen_sat, density, and par are from the CTD data file. Depth and pressure are primarily recorded from the bottle file, but samples E1148.DY2206, E1149.DY2206, E1158.DY2206, D1159.DY2206, and E1160.DY2206 has pressure recorded from the CTD file.</t>
+          <t>Enironmental metadata measurements reported for this sample are taken from a mix of the CTD data file and bottle file. wind_direction, wind_speed, turbidity, salinity, chlorophyll, and temp are from the bottle file. diss_oxygen, nitrate, nitrite, phosphate, percent_oxygen_sat, density, and par are from the CTD data file. Pressure are primarily recorded from the bottle file, but samples E1148.DY2206, E1149.DY2206, E1158.DY2206, D1159.DY2206, and E1160.DY2206 has pressure recorded from the CTD file. Depth is calculted from pressure.</t>
         </is>
       </c>
     </row>
@@ -19455,19 +19567,25 @@
           <t>mL</t>
         </is>
       </c>
-      <c r="AC15" t="n">
-        <v/>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
           <t>not applicable</t>
         </is>
       </c>
-      <c r="AE15" t="n">
-        <v/>
-      </c>
-      <c r="AF15" t="n">
-        <v/>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
@@ -19664,10 +19782,10 @@
         </is>
       </c>
       <c r="BU15" t="n">
-        <v>2.32</v>
+        <v>1.97</v>
       </c>
       <c r="BV15" t="n">
-        <v>3.32</v>
+        <v>2.97</v>
       </c>
       <c r="BW15" t="n">
         <v>70</v>
@@ -19993,7 +20111,7 @@
         </is>
       </c>
       <c r="EN15" t="n">
-        <v/>
+        <v>3</v>
       </c>
       <c r="EO15" t="inlineStr">
         <is>
@@ -20052,21 +20170,25 @@
       <c r="FA15" t="n">
         <v>1</v>
       </c>
-      <c r="FB15" t="n">
-        <v/>
+      <c r="FB15" t="inlineStr">
+        <is>
+          <t>AlaskaArctic22-23_extSet_1</t>
+        </is>
       </c>
       <c r="FC15" t="inlineStr">
         <is>
-          <t>missing: not collected</t>
+          <t>not applicable</t>
         </is>
       </c>
       <c r="FD15" t="inlineStr">
         <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
-      <c r="FE15" t="n">
-        <v/>
+          <t>not applicable</t>
+        </is>
+      </c>
+      <c r="FE15" t="inlineStr">
+        <is>
+          <t>not applicable</t>
+        </is>
       </c>
       <c r="FF15" t="n">
         <v/>
@@ -20081,13 +20203,13 @@
           <t>s12h1</t>
         </is>
       </c>
-      <c r="FI15" t="inlineStr">
+      <c r="FI15" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="FJ15" t="inlineStr">
         <is>
           <t>ng DNA per mL water</t>
         </is>
-      </c>
-      <c r="FJ15" t="n">
-        <v/>
       </c>
       <c r="FK15" t="n">
         <v>2</v>
@@ -20156,7 +20278,7 @@
       </c>
       <c r="GB15" t="inlineStr">
         <is>
-          <t>Enironmental metadata measurements reported for this sample are taken from a mix of the CTD data file and bottle file. wind_direction, wind_speed, turbidity, salinity, chlorophyll, and temp are from the bottle file. diss_oxygen, nitrate, nitrite, phosphate, percent_oxygen_sat, density, and par are from the CTD data file. Depth and pressure are primarily recorded from the bottle file, but samples E1148.DY2206, E1149.DY2206, E1158.DY2206, D1159.DY2206, and E1160.DY2206 has pressure recorded from the CTD file.</t>
+          <t>Enironmental metadata measurements reported for this sample are taken from a mix of the CTD data file and bottle file. wind_direction, wind_speed, turbidity, salinity, chlorophyll, and temp are from the bottle file. diss_oxygen, nitrate, nitrite, phosphate, percent_oxygen_sat, density, and par are from the CTD data file. Pressure are primarily recorded from the bottle file, but samples E1148.DY2206, E1149.DY2206, E1158.DY2206, D1159.DY2206, and E1160.DY2206 has pressure recorded from the CTD file. Depth is calculted from pressure.</t>
         </is>
       </c>
     </row>
@@ -20295,19 +20417,25 @@
           <t>mL</t>
         </is>
       </c>
-      <c r="AC16" t="n">
-        <v/>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
           <t>not applicable</t>
         </is>
       </c>
-      <c r="AE16" t="n">
-        <v/>
-      </c>
-      <c r="AF16" t="n">
-        <v/>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
@@ -20847,7 +20975,7 @@
         </is>
       </c>
       <c r="EN16" t="n">
-        <v/>
+        <v>130.158</v>
       </c>
       <c r="EO16" t="inlineStr">
         <is>
@@ -20908,21 +21036,25 @@
       <c r="FA16" t="n">
         <v>1</v>
       </c>
-      <c r="FB16" t="n">
-        <v/>
+      <c r="FB16" t="inlineStr">
+        <is>
+          <t>AlaskaArctic22-23_extSet_4</t>
+        </is>
       </c>
       <c r="FC16" t="inlineStr">
         <is>
-          <t>missing: not collected</t>
+          <t>not applicable</t>
         </is>
       </c>
       <c r="FD16" t="inlineStr">
         <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
-      <c r="FE16" t="n">
-        <v/>
+          <t>not applicable</t>
+        </is>
+      </c>
+      <c r="FE16" t="inlineStr">
+        <is>
+          <t>not applicable</t>
+        </is>
       </c>
       <c r="FF16" t="n">
         <v/>
@@ -20939,11 +21071,13 @@
       </c>
       <c r="FI16" t="inlineStr">
         <is>
-          <t>ng DNA per mL water</t>
-        </is>
-      </c>
-      <c r="FJ16" t="n">
-        <v/>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="FJ16" t="inlineStr">
+        <is>
+          <t>not applicable</t>
+        </is>
       </c>
       <c r="FK16" t="inlineStr">
         <is>
@@ -21030,7 +21164,7 @@
       </c>
       <c r="GB16" t="inlineStr">
         <is>
-          <t>Enironmental metadata measurements reported for this sample are taken from a mix of the CTD data file and bottle file. wind_direction, wind_speed, turbidity, salinity, chlorophyll, and temp are from the bottle file. diss_oxygen, nitrate, nitrite, phosphate, percent_oxygen_sat, density, and par are from the CTD data file. Depth and pressure are primarily recorded from the bottle file, but samples E1148.DY2206, E1149.DY2206, E1158.DY2206, D1159.DY2206, and E1160.DY2206 has pressure recorded from the CTD file.</t>
+          <t>Enironmental metadata measurements reported for this sample are taken from a mix of the CTD data file and bottle file. wind_direction, wind_speed, turbidity, salinity, chlorophyll, and temp are from the bottle file. diss_oxygen, nitrate, nitrite, phosphate, percent_oxygen_sat, density, and par are from the CTD data file. Pressure are primarily recorded from the bottle file, but samples E1148.DY2206, E1149.DY2206, E1158.DY2206, D1159.DY2206, and E1160.DY2206 has pressure recorded from the CTD file. Depth is calculted from pressure.</t>
         </is>
       </c>
     </row>
@@ -21169,19 +21303,25 @@
           <t>mL</t>
         </is>
       </c>
-      <c r="AC17" t="n">
-        <v/>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
           <t>not applicable</t>
         </is>
       </c>
-      <c r="AE17" t="n">
-        <v/>
-      </c>
-      <c r="AF17" t="n">
-        <v/>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
@@ -21721,7 +21861,7 @@
         </is>
       </c>
       <c r="EN17" t="n">
-        <v/>
+        <v>30.332</v>
       </c>
       <c r="EO17" t="inlineStr">
         <is>
@@ -21782,21 +21922,25 @@
       <c r="FA17" t="n">
         <v>1</v>
       </c>
-      <c r="FB17" t="n">
-        <v/>
+      <c r="FB17" t="inlineStr">
+        <is>
+          <t>AlaskaArctic22-23_extSet_1</t>
+        </is>
       </c>
       <c r="FC17" t="inlineStr">
         <is>
-          <t>missing: not collected</t>
+          <t>not applicable</t>
         </is>
       </c>
       <c r="FD17" t="inlineStr">
         <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
-      <c r="FE17" t="n">
-        <v/>
+          <t>not applicable</t>
+        </is>
+      </c>
+      <c r="FE17" t="inlineStr">
+        <is>
+          <t>not applicable</t>
+        </is>
       </c>
       <c r="FF17" t="n">
         <v/>
@@ -21813,11 +21957,13 @@
       </c>
       <c r="FI17" t="inlineStr">
         <is>
-          <t>ng DNA per mL water</t>
-        </is>
-      </c>
-      <c r="FJ17" t="n">
-        <v/>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="FJ17" t="inlineStr">
+        <is>
+          <t>not applicable</t>
+        </is>
       </c>
       <c r="FK17" t="inlineStr">
         <is>
@@ -21904,7 +22050,7 @@
       </c>
       <c r="GB17" t="inlineStr">
         <is>
-          <t>Enironmental metadata measurements reported for this sample are taken from a mix of the CTD data file and bottle file. wind_direction, wind_speed, turbidity, salinity, chlorophyll, and temp are from the bottle file. diss_oxygen, nitrate, nitrite, phosphate, percent_oxygen_sat, density, and par are from the CTD data file. Depth and pressure are primarily recorded from the bottle file, but samples E1148.DY2206, E1149.DY2206, E1158.DY2206, D1159.DY2206, and E1160.DY2206 has pressure recorded from the CTD file.</t>
+          <t>Enironmental metadata measurements reported for this sample are taken from a mix of the CTD data file and bottle file. wind_direction, wind_speed, turbidity, salinity, chlorophyll, and temp are from the bottle file. diss_oxygen, nitrate, nitrite, phosphate, percent_oxygen_sat, density, and par are from the CTD data file. Pressure are primarily recorded from the bottle file, but samples E1148.DY2206, E1149.DY2206, E1158.DY2206, D1159.DY2206, and E1160.DY2206 has pressure recorded from the CTD file. Depth is calculted from pressure.</t>
         </is>
       </c>
     </row>
@@ -22043,19 +22189,25 @@
           <t>mL</t>
         </is>
       </c>
-      <c r="AC18" t="n">
-        <v/>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
           <t>not applicable</t>
         </is>
       </c>
-      <c r="AE18" t="n">
-        <v/>
-      </c>
-      <c r="AF18" t="n">
-        <v/>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
@@ -22595,7 +22747,7 @@
         </is>
       </c>
       <c r="EN18" t="n">
-        <v/>
+        <v>4.155</v>
       </c>
       <c r="EO18" t="inlineStr">
         <is>
@@ -22656,21 +22808,25 @@
       <c r="FA18" t="n">
         <v>1</v>
       </c>
-      <c r="FB18" t="n">
-        <v/>
+      <c r="FB18" t="inlineStr">
+        <is>
+          <t>AlaskaArctic22-23_extSet_1</t>
+        </is>
       </c>
       <c r="FC18" t="inlineStr">
         <is>
-          <t>missing: not collected</t>
+          <t>not applicable</t>
         </is>
       </c>
       <c r="FD18" t="inlineStr">
         <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
-      <c r="FE18" t="n">
-        <v/>
+          <t>not applicable</t>
+        </is>
+      </c>
+      <c r="FE18" t="inlineStr">
+        <is>
+          <t>not applicable</t>
+        </is>
       </c>
       <c r="FF18" t="n">
         <v/>
@@ -22687,11 +22843,13 @@
       </c>
       <c r="FI18" t="inlineStr">
         <is>
-          <t>ng DNA per mL water</t>
-        </is>
-      </c>
-      <c r="FJ18" t="n">
-        <v/>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="FJ18" t="inlineStr">
+        <is>
+          <t>not applicable</t>
+        </is>
       </c>
       <c r="FK18" t="inlineStr">
         <is>
@@ -22778,7 +22936,7 @@
       </c>
       <c r="GB18" t="inlineStr">
         <is>
-          <t>Enironmental metadata measurements reported for this sample are taken from a mix of the CTD data file and bottle file. wind_direction, wind_speed, turbidity, salinity, chlorophyll, and temp are from the bottle file. diss_oxygen, nitrate, nitrite, phosphate, percent_oxygen_sat, density, and par are from the CTD data file. Depth and pressure are primarily recorded from the bottle file, but samples E1148.DY2206, E1149.DY2206, E1158.DY2206, D1159.DY2206, and E1160.DY2206 has pressure recorded from the CTD file.</t>
+          <t>Enironmental metadata measurements reported for this sample are taken from a mix of the CTD data file and bottle file. wind_direction, wind_speed, turbidity, salinity, chlorophyll, and temp are from the bottle file. diss_oxygen, nitrate, nitrite, phosphate, percent_oxygen_sat, density, and par are from the CTD data file. Pressure are primarily recorded from the bottle file, but samples E1148.DY2206, E1149.DY2206, E1158.DY2206, D1159.DY2206, and E1160.DY2206 has pressure recorded from the CTD file. Depth is calculted from pressure.</t>
         </is>
       </c>
     </row>
@@ -22917,19 +23075,25 @@
           <t>mL</t>
         </is>
       </c>
-      <c r="AC19" t="n">
-        <v/>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
           <t>not applicable</t>
         </is>
       </c>
-      <c r="AE19" t="n">
-        <v/>
-      </c>
-      <c r="AF19" t="n">
-        <v/>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
@@ -23467,7 +23631,7 @@
         </is>
       </c>
       <c r="EN19" t="n">
-        <v/>
+        <v>67.078</v>
       </c>
       <c r="EO19" t="inlineStr">
         <is>
@@ -23528,21 +23692,25 @@
       <c r="FA19" t="n">
         <v>1</v>
       </c>
-      <c r="FB19" t="n">
-        <v/>
+      <c r="FB19" t="inlineStr">
+        <is>
+          <t>AlaskaArctic22-23_extSet_1</t>
+        </is>
       </c>
       <c r="FC19" t="inlineStr">
         <is>
-          <t>missing: not collected</t>
+          <t>not applicable</t>
         </is>
       </c>
       <c r="FD19" t="inlineStr">
         <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
-      <c r="FE19" t="n">
-        <v/>
+          <t>not applicable</t>
+        </is>
+      </c>
+      <c r="FE19" t="inlineStr">
+        <is>
+          <t>not applicable</t>
+        </is>
       </c>
       <c r="FF19" t="n">
         <v/>
@@ -23557,13 +23725,13 @@
           <t>s23h1</t>
         </is>
       </c>
-      <c r="FI19" t="inlineStr">
+      <c r="FI19" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="FJ19" t="inlineStr">
         <is>
           <t>ng DNA per mL water</t>
         </is>
-      </c>
-      <c r="FJ19" t="n">
-        <v/>
       </c>
       <c r="FK19" t="inlineStr">
         <is>
@@ -23650,7 +23818,7 @@
       </c>
       <c r="GB19" t="inlineStr">
         <is>
-          <t>Enironmental metadata measurements reported for this sample are taken from a mix of the CTD data file and bottle file. wind_direction, wind_speed, turbidity, salinity, chlorophyll, and temp are from the bottle file. diss_oxygen, nitrate, nitrite, phosphate, percent_oxygen_sat, density, and par are from the CTD data file. Depth and pressure are primarily recorded from the bottle file, but samples E1148.DY2206, E1149.DY2206, E1158.DY2206, D1159.DY2206, and E1160.DY2206 has pressure recorded from the CTD file.</t>
+          <t>Enironmental metadata measurements reported for this sample are taken from a mix of the CTD data file and bottle file. wind_direction, wind_speed, turbidity, salinity, chlorophyll, and temp are from the bottle file. diss_oxygen, nitrate, nitrite, phosphate, percent_oxygen_sat, density, and par are from the CTD data file. Pressure are primarily recorded from the bottle file, but samples E1148.DY2206, E1149.DY2206, E1158.DY2206, D1159.DY2206, and E1160.DY2206 has pressure recorded from the CTD file. Depth is calculted from pressure.</t>
         </is>
       </c>
     </row>
@@ -23789,19 +23957,25 @@
           <t>mL</t>
         </is>
       </c>
-      <c r="AC20" t="n">
-        <v/>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
           <t>not applicable</t>
         </is>
       </c>
-      <c r="AE20" t="n">
-        <v/>
-      </c>
-      <c r="AF20" t="n">
-        <v/>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
@@ -24339,7 +24513,7 @@
         </is>
       </c>
       <c r="EN20" t="n">
-        <v/>
+        <v>30.837</v>
       </c>
       <c r="EO20" t="inlineStr">
         <is>
@@ -24400,21 +24574,25 @@
       <c r="FA20" t="n">
         <v>1</v>
       </c>
-      <c r="FB20" t="n">
-        <v/>
+      <c r="FB20" t="inlineStr">
+        <is>
+          <t>AlaskaArctic22-23_extSet_1</t>
+        </is>
       </c>
       <c r="FC20" t="inlineStr">
         <is>
-          <t>missing: not collected</t>
+          <t>not applicable</t>
         </is>
       </c>
       <c r="FD20" t="inlineStr">
         <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
-      <c r="FE20" t="n">
-        <v/>
+          <t>not applicable</t>
+        </is>
+      </c>
+      <c r="FE20" t="inlineStr">
+        <is>
+          <t>not applicable</t>
+        </is>
       </c>
       <c r="FF20" t="n">
         <v/>
@@ -24429,13 +24607,13 @@
           <t>s23h1</t>
         </is>
       </c>
-      <c r="FI20" t="inlineStr">
+      <c r="FI20" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="FJ20" t="inlineStr">
         <is>
           <t>ng DNA per mL water</t>
         </is>
-      </c>
-      <c r="FJ20" t="n">
-        <v/>
       </c>
       <c r="FK20" t="inlineStr">
         <is>
@@ -24522,7 +24700,7 @@
       </c>
       <c r="GB20" t="inlineStr">
         <is>
-          <t>Enironmental metadata measurements reported for this sample are taken from a mix of the CTD data file and bottle file. wind_direction, wind_speed, turbidity, salinity, chlorophyll, and temp are from the bottle file. diss_oxygen, nitrate, nitrite, phosphate, percent_oxygen_sat, density, and par are from the CTD data file. Depth and pressure are primarily recorded from the bottle file, but samples E1148.DY2206, E1149.DY2206, E1158.DY2206, D1159.DY2206, and E1160.DY2206 has pressure recorded from the CTD file.</t>
+          <t>Enironmental metadata measurements reported for this sample are taken from a mix of the CTD data file and bottle file. wind_direction, wind_speed, turbidity, salinity, chlorophyll, and temp are from the bottle file. diss_oxygen, nitrate, nitrite, phosphate, percent_oxygen_sat, density, and par are from the CTD data file. Pressure are primarily recorded from the bottle file, but samples E1148.DY2206, E1149.DY2206, E1158.DY2206, D1159.DY2206, and E1160.DY2206 has pressure recorded from the CTD file. Depth is calculted from pressure.</t>
         </is>
       </c>
     </row>
@@ -24661,19 +24839,25 @@
           <t>mL</t>
         </is>
       </c>
-      <c r="AC21" t="n">
-        <v/>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
           <t>not applicable</t>
         </is>
       </c>
-      <c r="AE21" t="n">
-        <v/>
-      </c>
-      <c r="AF21" t="n">
-        <v/>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
@@ -25211,7 +25395,7 @@
         </is>
       </c>
       <c r="EN21" t="n">
-        <v/>
+        <v>3.452</v>
       </c>
       <c r="EO21" t="inlineStr">
         <is>
@@ -25272,21 +25456,25 @@
       <c r="FA21" t="n">
         <v>1</v>
       </c>
-      <c r="FB21" t="n">
-        <v/>
+      <c r="FB21" t="inlineStr">
+        <is>
+          <t>AlaskaArctic22-23_extSet_1</t>
+        </is>
       </c>
       <c r="FC21" t="inlineStr">
         <is>
-          <t>missing: not collected</t>
+          <t>not applicable</t>
         </is>
       </c>
       <c r="FD21" t="inlineStr">
         <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
-      <c r="FE21" t="n">
-        <v/>
+          <t>not applicable</t>
+        </is>
+      </c>
+      <c r="FE21" t="inlineStr">
+        <is>
+          <t>not applicable</t>
+        </is>
       </c>
       <c r="FF21" t="n">
         <v/>
@@ -25301,13 +25489,13 @@
           <t>s23h1</t>
         </is>
       </c>
-      <c r="FI21" t="inlineStr">
+      <c r="FI21" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="FJ21" t="inlineStr">
         <is>
           <t>ng DNA per mL water</t>
         </is>
-      </c>
-      <c r="FJ21" t="n">
-        <v/>
       </c>
       <c r="FK21" t="inlineStr">
         <is>
@@ -25394,7 +25582,7 @@
       </c>
       <c r="GB21" t="inlineStr">
         <is>
-          <t>Enironmental metadata measurements reported for this sample are taken from a mix of the CTD data file and bottle file. wind_direction, wind_speed, turbidity, salinity, chlorophyll, and temp are from the bottle file. diss_oxygen, nitrate, nitrite, phosphate, percent_oxygen_sat, density, and par are from the CTD data file. Depth and pressure are primarily recorded from the bottle file, but samples E1148.DY2206, E1149.DY2206, E1158.DY2206, D1159.DY2206, and E1160.DY2206 has pressure recorded from the CTD file.</t>
+          <t>Enironmental metadata measurements reported for this sample are taken from a mix of the CTD data file and bottle file. wind_direction, wind_speed, turbidity, salinity, chlorophyll, and temp are from the bottle file. diss_oxygen, nitrate, nitrite, phosphate, percent_oxygen_sat, density, and par are from the CTD data file. Pressure are primarily recorded from the bottle file, but samples E1148.DY2206, E1149.DY2206, E1158.DY2206, D1159.DY2206, and E1160.DY2206 has pressure recorded from the CTD file. Depth is calculted from pressure.</t>
         </is>
       </c>
     </row>
@@ -25533,19 +25721,25 @@
           <t>mL</t>
         </is>
       </c>
-      <c r="AC22" t="n">
-        <v/>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
           <t>not applicable</t>
         </is>
       </c>
-      <c r="AE22" t="n">
-        <v/>
-      </c>
-      <c r="AF22" t="n">
-        <v/>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
@@ -26085,7 +26279,7 @@
         </is>
       </c>
       <c r="EN22" t="n">
-        <v/>
+        <v>65.501</v>
       </c>
       <c r="EO22" t="inlineStr">
         <is>
@@ -26146,21 +26340,25 @@
       <c r="FA22" t="n">
         <v>1</v>
       </c>
-      <c r="FB22" t="n">
-        <v/>
+      <c r="FB22" t="inlineStr">
+        <is>
+          <t>AlaskaArctic22-23_extSet_1</t>
+        </is>
       </c>
       <c r="FC22" t="inlineStr">
         <is>
-          <t>missing: not collected</t>
+          <t>not applicable</t>
         </is>
       </c>
       <c r="FD22" t="inlineStr">
         <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
-      <c r="FE22" t="n">
-        <v/>
+          <t>not applicable</t>
+        </is>
+      </c>
+      <c r="FE22" t="inlineStr">
+        <is>
+          <t>not applicable</t>
+        </is>
       </c>
       <c r="FF22" t="n">
         <v/>
@@ -26177,11 +26375,13 @@
       </c>
       <c r="FI22" t="inlineStr">
         <is>
-          <t>ng DNA per mL water</t>
-        </is>
-      </c>
-      <c r="FJ22" t="n">
-        <v/>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="FJ22" t="inlineStr">
+        <is>
+          <t>not applicable</t>
+        </is>
       </c>
       <c r="FK22" t="inlineStr">
         <is>
@@ -26268,7 +26468,7 @@
       </c>
       <c r="GB22" t="inlineStr">
         <is>
-          <t>Enironmental metadata measurements reported for this sample are taken from a mix of the CTD data file and bottle file. wind_direction, wind_speed, turbidity, salinity, chlorophyll, and temp are from the bottle file. diss_oxygen, nitrate, nitrite, phosphate, percent_oxygen_sat, density, and par are from the CTD data file. Depth and pressure are primarily recorded from the bottle file, but samples E1148.DY2206, E1149.DY2206, E1158.DY2206, D1159.DY2206, and E1160.DY2206 has pressure recorded from the CTD file.</t>
+          <t>Enironmental metadata measurements reported for this sample are taken from a mix of the CTD data file and bottle file. wind_direction, wind_speed, turbidity, salinity, chlorophyll, and temp are from the bottle file. diss_oxygen, nitrate, nitrite, phosphate, percent_oxygen_sat, density, and par are from the CTD data file. Pressure are primarily recorded from the bottle file, but samples E1148.DY2206, E1149.DY2206, E1158.DY2206, D1159.DY2206, and E1160.DY2206 has pressure recorded from the CTD file. Depth is calculted from pressure.</t>
         </is>
       </c>
     </row>
@@ -26407,19 +26607,25 @@
           <t>mL</t>
         </is>
       </c>
-      <c r="AC23" t="n">
-        <v/>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
           <t>not applicable</t>
         </is>
       </c>
-      <c r="AE23" t="n">
-        <v/>
-      </c>
-      <c r="AF23" t="n">
-        <v/>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="AF23" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
       </c>
       <c r="AG23" t="inlineStr">
         <is>
@@ -26959,7 +27165,7 @@
         </is>
       </c>
       <c r="EN23" t="n">
-        <v/>
+        <v>30.471</v>
       </c>
       <c r="EO23" t="inlineStr">
         <is>
@@ -27020,21 +27226,25 @@
       <c r="FA23" t="n">
         <v>1</v>
       </c>
-      <c r="FB23" t="n">
-        <v/>
+      <c r="FB23" t="inlineStr">
+        <is>
+          <t>AlaskaArctic22-23_extSet_1</t>
+        </is>
       </c>
       <c r="FC23" t="inlineStr">
         <is>
-          <t>missing: not collected</t>
+          <t>not applicable</t>
         </is>
       </c>
       <c r="FD23" t="inlineStr">
         <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
-      <c r="FE23" t="n">
-        <v/>
+          <t>not applicable</t>
+        </is>
+      </c>
+      <c r="FE23" t="inlineStr">
+        <is>
+          <t>not applicable</t>
+        </is>
       </c>
       <c r="FF23" t="n">
         <v/>
@@ -27051,11 +27261,13 @@
       </c>
       <c r="FI23" t="inlineStr">
         <is>
-          <t>ng DNA per mL water</t>
-        </is>
-      </c>
-      <c r="FJ23" t="n">
-        <v/>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="FJ23" t="inlineStr">
+        <is>
+          <t>not applicable</t>
+        </is>
       </c>
       <c r="FK23" t="inlineStr">
         <is>
@@ -27142,7 +27354,7 @@
       </c>
       <c r="GB23" t="inlineStr">
         <is>
-          <t>Enironmental metadata measurements reported for this sample are taken from a mix of the CTD data file and bottle file. wind_direction, wind_speed, turbidity, salinity, chlorophyll, and temp are from the bottle file. diss_oxygen, nitrate, nitrite, phosphate, percent_oxygen_sat, density, and par are from the CTD data file. Depth and pressure are primarily recorded from the bottle file, but samples E1148.DY2206, E1149.DY2206, E1158.DY2206, D1159.DY2206, and E1160.DY2206 has pressure recorded from the CTD file.</t>
+          <t>Enironmental metadata measurements reported for this sample are taken from a mix of the CTD data file and bottle file. wind_direction, wind_speed, turbidity, salinity, chlorophyll, and temp are from the bottle file. diss_oxygen, nitrate, nitrite, phosphate, percent_oxygen_sat, density, and par are from the CTD data file. Pressure are primarily recorded from the bottle file, but samples E1148.DY2206, E1149.DY2206, E1158.DY2206, D1159.DY2206, and E1160.DY2206 has pressure recorded from the CTD file. Depth is calculted from pressure.</t>
         </is>
       </c>
     </row>
@@ -27281,19 +27493,25 @@
           <t>mL</t>
         </is>
       </c>
-      <c r="AC24" t="n">
-        <v/>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
           <t>not applicable</t>
         </is>
       </c>
-      <c r="AE24" t="n">
-        <v/>
-      </c>
-      <c r="AF24" t="n">
-        <v/>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
       </c>
       <c r="AG24" t="inlineStr">
         <is>
@@ -27833,7 +28051,7 @@
         </is>
       </c>
       <c r="EN24" t="n">
-        <v/>
+        <v>2.974</v>
       </c>
       <c r="EO24" t="inlineStr">
         <is>
@@ -27894,21 +28112,25 @@
       <c r="FA24" t="n">
         <v>1</v>
       </c>
-      <c r="FB24" t="n">
-        <v/>
+      <c r="FB24" t="inlineStr">
+        <is>
+          <t>AlaskaArctic22-23_extSet_1</t>
+        </is>
       </c>
       <c r="FC24" t="inlineStr">
         <is>
-          <t>missing: not collected</t>
+          <t>not applicable</t>
         </is>
       </c>
       <c r="FD24" t="inlineStr">
         <is>
-          <t>missing: not collected</t>
-        </is>
-      </c>
-      <c r="FE24" t="n">
-        <v/>
+          <t>not applicable</t>
+        </is>
+      </c>
+      <c r="FE24" t="inlineStr">
+        <is>
+          <t>not applicable</t>
+        </is>
       </c>
       <c r="FF24" t="n">
         <v/>
@@ -27925,11 +28147,13 @@
       </c>
       <c r="FI24" t="inlineStr">
         <is>
-          <t>ng DNA per mL water</t>
-        </is>
-      </c>
-      <c r="FJ24" t="n">
-        <v/>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="FJ24" t="inlineStr">
+        <is>
+          <t>not applicable</t>
+        </is>
       </c>
       <c r="FK24" t="inlineStr">
         <is>
@@ -28016,7 +28240,7 @@
       </c>
       <c r="GB24" t="inlineStr">
         <is>
-          <t>Enironmental metadata measurements reported for this sample are taken from a mix of the CTD data file and bottle file. wind_direction, wind_speed, turbidity, salinity, chlorophyll, and temp are from the bottle file. diss_oxygen, nitrate, nitrite, phosphate, percent_oxygen_sat, density, and par are from the CTD data file. Depth and pressure are primarily recorded from the bottle file, but samples E1148.DY2206, E1149.DY2206, E1158.DY2206, D1159.DY2206, and E1160.DY2206 has pressure recorded from the CTD file.</t>
+          <t>Enironmental metadata measurements reported for this sample are taken from a mix of the CTD data file and bottle file. wind_direction, wind_speed, turbidity, salinity, chlorophyll, and temp are from the bottle file. diss_oxygen, nitrate, nitrite, phosphate, percent_oxygen_sat, density, and par are from the CTD data file. Pressure are primarily recorded from the bottle file, but samples E1148.DY2206, E1149.DY2206, E1158.DY2206, D1159.DY2206, and E1160.DY2206 has pressure recorded from the CTD file. Depth is calculted from pressure.</t>
         </is>
       </c>
     </row>

--- a/projects/EcoFoci/dy2206/data/dy2206_faire.xlsx
+++ b/projects/EcoFoci/dy2206/data/dy2206_faire.xlsx
@@ -9944,7 +9944,7 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>PT0S/PT1S</t>
+          <t>T0S/T1S</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
@@ -10794,7 +10794,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>PT0S/PT1S</t>
+          <t>T0S/T1S</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -11644,7 +11644,7 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>PT0S/PT1S</t>
+          <t>T0S/T1S</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -12528,7 +12528,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>PT0S/PT1S</t>
+          <t>T0S/T1S</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -13410,7 +13410,7 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>PT0S/PT1S</t>
+          <t>T0S/T1S</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -14292,7 +14292,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>PT0S/PT1S</t>
+          <t>T0S/T1S</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -15174,7 +15174,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>PT0S/PT1S</t>
+          <t>T0S/T1S</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -16056,7 +16056,7 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>PT0S/PT1S</t>
+          <t>T0S/T1S</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -16938,7 +16938,7 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>PT0S/PT1S</t>
+          <t>T0S/T1S</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -17820,7 +17820,7 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>PT0S/PT1S</t>
+          <t>T0S/T1S</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -18668,7 +18668,7 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>PT0S/PT1S</t>
+          <t>T0S/T1S</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
@@ -19516,7 +19516,7 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>PT0S/PT1S</t>
+          <t>T0S/T1S</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -20366,7 +20366,7 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>PT0S/PT1S</t>
+          <t>T0S/T1S</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
@@ -21252,7 +21252,7 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>PT0S/PT1S</t>
+          <t>T0S/T1S</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -22138,7 +22138,7 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>PT0S/PT1S</t>
+          <t>T0S/T1S</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -23024,7 +23024,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>PT0S/PT1S</t>
+          <t>T0S/T1S</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -23906,7 +23906,7 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>PT0S/PT1S</t>
+          <t>T0S/T1S</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
@@ -24788,7 +24788,7 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>PT0S/PT1S</t>
+          <t>T0S/T1S</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -25670,7 +25670,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>PT0S/PT1S</t>
+          <t>T0S/T1S</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -26556,7 +26556,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>PT0S/PT1S</t>
+          <t>T0S/T1S</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -27442,7 +27442,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>PT0S/PT1S</t>
+          <t>T0S/T1S</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -28332,7 +28332,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>PT0S/PT1S</t>
+          <t>T0S/T1S</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -29250,7 +29250,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>PT0S/PT1S</t>
+          <t>T0S/T1S</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -30168,7 +30168,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>PT0S/PT1S</t>
+          <t>T0S/T1S</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
